--- a/MLBB_HEROES_Klastering.xlsx
+++ b/MLBB_HEROES_Klastering.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="353">
   <si>
     <t>Name</t>
   </si>
@@ -921,6 +921,168 @@
   </si>
   <si>
     <t>The Dragonborn is back!</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Hp_Regen</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Mana_Regen</t>
+  </si>
+  <si>
+    <t>Phy_Damage</t>
+  </si>
+  <si>
+    <t>Mag_Damage</t>
+  </si>
+  <si>
+    <t>Phy_Defence</t>
+  </si>
+  <si>
+    <t>Mag_Defence</t>
+  </si>
+  <si>
+    <t>Mov_Speed</t>
+  </si>
+  <si>
+    <t>Esport_Wins</t>
+  </si>
+  <si>
+    <t>Esport_Loss</t>
+  </si>
+  <si>
+    <t>Release_Date</t>
+  </si>
+  <si>
+    <t>10/25/2021</t>
+  </si>
+  <si>
+    <t>3/20/2020</t>
+  </si>
+  <si>
+    <t>8/31/2021</t>
+  </si>
+  <si>
+    <t>1/15/2019</t>
+  </si>
+  <si>
+    <t>9/18/2020</t>
+  </si>
+  <si>
+    <t>3/19/2021</t>
+  </si>
+  <si>
+    <t>12/17/2018</t>
+  </si>
+  <si>
+    <t>10/16/2020</t>
+  </si>
+  <si>
+    <t>1/17/2020</t>
+  </si>
+  <si>
+    <t>5/30/2018</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>6/25/2019</t>
+  </si>
+  <si>
+    <t>12/24/2021</t>
+  </si>
+  <si>
+    <t>5/18/2019</t>
+  </si>
+  <si>
+    <t>9/22/2021</t>
+  </si>
+  <si>
+    <t>4/16/2021</t>
+  </si>
+  <si>
+    <t>4/19/2019</t>
+  </si>
+  <si>
+    <t>2/21/2019</t>
+  </si>
+  <si>
+    <t>4/17/2018</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>8/15/2017</t>
+  </si>
+  <si>
+    <t>5/24/2022</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-01</t>
+  </si>
+  <si>
+    <t>5/16/2020</t>
+  </si>
+  <si>
+    <t>7/23/2019</t>
+  </si>
+  <si>
+    <t>9/17/2019</t>
+  </si>
+  <si>
+    <t>2/22/2022</t>
+  </si>
+  <si>
+    <t>7/23/2021</t>
+  </si>
+  <si>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>9/29/2017</t>
+  </si>
+  <si>
+    <t>4/21/2020</t>
+  </si>
+  <si>
+    <t>1/15/2021</t>
+  </si>
+  <si>
+    <t>6/25/2017</t>
+  </si>
+  <si>
+    <t>7/18/2018</t>
+  </si>
+  <si>
+    <t>12/17/2019</t>
+  </si>
+  <si>
+    <t>1/29/2019</t>
+  </si>
+  <si>
+    <t>11/26/2019</t>
+  </si>
+  <si>
+    <t>3/22/2022</t>
+  </si>
+  <si>
+    <t>1/18/2022</t>
+  </si>
+  <si>
+    <t>6/19/2020</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
   </si>
 </sst>
 </file>
@@ -956,8 +1118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,15 +1401,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="66.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,13 +1423,49 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1274,13 +1476,49 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>2614</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>455</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>115</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>250</v>
+      </c>
+      <c r="P2">
+        <v>43</v>
+      </c>
+      <c r="Q2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1290,14 +1528,50 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2016</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2769</v>
+      </c>
+      <c r="H3">
+        <v>8.4</v>
+      </c>
+      <c r="I3">
+        <v>422</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>115</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>260</v>
+      </c>
+      <c r="P3">
+        <v>540</v>
+      </c>
+      <c r="Q3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1307,14 +1581,50 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2718</v>
+      </c>
+      <c r="H4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I4">
+        <v>405</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>129</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>21</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>260</v>
+      </c>
+      <c r="P4">
+        <v>95</v>
+      </c>
+      <c r="Q4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1324,14 +1634,50 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>2016</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>2573</v>
+      </c>
+      <c r="H5">
+        <v>7.2</v>
+      </c>
+      <c r="I5">
+        <v>493</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>114</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>240</v>
+      </c>
+      <c r="P5">
+        <v>364</v>
+      </c>
+      <c r="Q5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1341,14 +1687,50 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>2017</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>2646</v>
+      </c>
+      <c r="H6">
+        <v>7.8</v>
+      </c>
+      <c r="I6">
+        <v>453</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>121</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <v>260</v>
+      </c>
+      <c r="P6">
+        <v>24</v>
+      </c>
+      <c r="Q6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1358,14 +1740,50 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>2016</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>2621</v>
+      </c>
+      <c r="H7">
+        <v>7.8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>123</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>21</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>260</v>
+      </c>
+      <c r="P7">
+        <v>22</v>
+      </c>
+      <c r="Q7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1375,14 +1793,50 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1">
+        <v>43253</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>2421</v>
+      </c>
+      <c r="H8">
+        <v>6.8</v>
+      </c>
+      <c r="I8">
+        <v>515</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>115</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>15</v>
+      </c>
+      <c r="O8">
+        <v>240</v>
+      </c>
+      <c r="P8">
+        <v>253</v>
+      </c>
+      <c r="Q8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1392,14 +1846,50 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>2017</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>2628</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <v>260</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1410,13 +1900,49 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>2819</v>
+      </c>
+      <c r="H10">
+        <v>8.4</v>
+      </c>
+      <c r="I10">
+        <v>440</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>135</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>240</v>
+      </c>
+      <c r="P10">
+        <v>277</v>
+      </c>
+      <c r="Q10">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1426,14 +1952,50 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1">
+        <v>42864</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>2501</v>
+      </c>
+      <c r="H11">
+        <v>6.8</v>
+      </c>
+      <c r="I11">
+        <v>750</v>
+      </c>
+      <c r="J11">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>110</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <v>15</v>
+      </c>
+      <c r="O11">
+        <v>245</v>
+      </c>
+      <c r="P11">
+        <v>28</v>
+      </c>
+      <c r="Q11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1444,13 +2006,49 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>2758</v>
+      </c>
+      <c r="H12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I12">
+        <v>410</v>
+      </c>
+      <c r="J12">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>255</v>
+      </c>
+      <c r="P12">
+        <v>114</v>
+      </c>
+      <c r="Q12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1461,13 +2059,49 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>2708</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>111</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>255</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1477,14 +2111,50 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>2016</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>2736</v>
+      </c>
+      <c r="H14">
+        <v>9.4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>119</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
+      <c r="O14">
+        <v>260</v>
+      </c>
+      <c r="P14">
+        <v>301</v>
+      </c>
+      <c r="Q14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1494,14 +2164,50 @@
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>2016</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>2559</v>
+      </c>
+      <c r="H15">
+        <v>8.4</v>
+      </c>
+      <c r="I15">
+        <v>433</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>117</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>23</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>260</v>
+      </c>
+      <c r="P15">
+        <v>95</v>
+      </c>
+      <c r="Q15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1512,13 +2218,49 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>2559</v>
+      </c>
+      <c r="H16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I16">
+        <v>430</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>135</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>18</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>268</v>
+      </c>
+      <c r="P16">
+        <v>327</v>
+      </c>
+      <c r="Q16">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1528,14 +2270,50 @@
       <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1">
+        <v>43687</v>
+      </c>
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>2769</v>
+      </c>
+      <c r="H17">
+        <v>8.4</v>
+      </c>
+      <c r="I17">
+        <v>422</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>125</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>240</v>
+      </c>
+      <c r="P17">
+        <v>450</v>
+      </c>
+      <c r="Q17">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1546,13 +2324,49 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" t="s">
         <v>61</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2550</v>
+      </c>
+      <c r="H18">
+        <v>7.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>102</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="O18">
+        <v>257</v>
+      </c>
+      <c r="P18">
+        <v>1016</v>
+      </c>
+      <c r="Q18">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1563,13 +2377,49 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>2569</v>
+      </c>
+      <c r="H19">
+        <v>8.4</v>
+      </c>
+      <c r="I19">
+        <v>450</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>110</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>250</v>
+      </c>
+      <c r="P19">
+        <v>57</v>
+      </c>
+      <c r="Q19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1579,14 +2429,50 @@
       <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1">
+        <v>44023</v>
+      </c>
+      <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>2569</v>
+      </c>
+      <c r="H20">
+        <v>6.6</v>
+      </c>
+      <c r="I20">
+        <v>460</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>113</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <v>255</v>
+      </c>
+      <c r="P20">
+        <v>477</v>
+      </c>
+      <c r="Q20">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1597,13 +2483,49 @@
         <v>70</v>
       </c>
       <c r="D21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>2490</v>
+      </c>
+      <c r="H21">
+        <v>7.2</v>
+      </c>
+      <c r="I21">
+        <v>435</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>105</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>15</v>
+      </c>
+      <c r="O21">
+        <v>253</v>
+      </c>
+      <c r="P21">
+        <v>470</v>
+      </c>
+      <c r="Q21">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1613,14 +2535,50 @@
       <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>2016</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>2522</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>439</v>
+      </c>
+      <c r="J22">
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>140</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
+      </c>
+      <c r="O22">
+        <v>240</v>
+      </c>
+      <c r="P22">
+        <v>154</v>
+      </c>
+      <c r="Q22">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1631,13 +2589,49 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>2528</v>
+      </c>
+      <c r="H23">
+        <v>7.8</v>
+      </c>
+      <c r="I23">
+        <v>430</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>126</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>15</v>
+      </c>
+      <c r="O23">
+        <v>255</v>
+      </c>
+      <c r="P23">
+        <v>32</v>
+      </c>
+      <c r="Q23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1647,14 +2641,50 @@
       <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>2456</v>
+      </c>
+      <c r="H24">
+        <v>6.8</v>
+      </c>
+      <c r="I24">
+        <v>700</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>105</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>15</v>
+      </c>
+      <c r="O24">
+        <v>255</v>
+      </c>
+      <c r="P24">
+        <v>470</v>
+      </c>
+      <c r="Q24">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -1665,13 +2695,49 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>2301</v>
+      </c>
+      <c r="H25">
+        <v>6.8</v>
+      </c>
+      <c r="I25">
+        <v>505</v>
+      </c>
+      <c r="J25">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>115</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>16</v>
+      </c>
+      <c r="N25">
+        <v>15</v>
+      </c>
+      <c r="O25">
+        <v>240</v>
+      </c>
+      <c r="P25">
+        <v>221</v>
+      </c>
+      <c r="Q25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -1681,14 +2747,50 @@
       <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>2016</v>
+      </c>
+      <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>2708</v>
+      </c>
+      <c r="H26">
+        <v>7.8</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>121</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>260</v>
+      </c>
+      <c r="P26">
+        <v>1139</v>
+      </c>
+      <c r="Q26">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1698,14 +2800,50 @@
       <c r="C27" t="s">
         <v>85</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1">
+        <v>43289</v>
+      </c>
+      <c r="E27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>2370</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>450</v>
+      </c>
+      <c r="J27">
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <v>97</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>15</v>
+      </c>
+      <c r="O27">
+        <v>240</v>
+      </c>
+      <c r="P27">
+        <v>618</v>
+      </c>
+      <c r="Q27">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -1715,14 +2853,50 @@
       <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>2016</v>
+      </c>
+      <c r="E28" t="s">
         <v>61</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>2530</v>
+      </c>
+      <c r="H28">
+        <v>7.2</v>
+      </c>
+      <c r="I28">
+        <v>450</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>115</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>240</v>
+      </c>
+      <c r="P28">
+        <v>540</v>
+      </c>
+      <c r="Q28">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1732,14 +2906,50 @@
       <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>2017</v>
+      </c>
+      <c r="E29" t="s">
         <v>23</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>2521</v>
+      </c>
+      <c r="H29">
+        <v>7.6</v>
+      </c>
+      <c r="I29">
+        <v>500</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>112</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <v>240</v>
+      </c>
+      <c r="P29">
+        <v>69</v>
+      </c>
+      <c r="Q29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -1750,13 +2960,49 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E30" t="s">
         <v>32</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>2468</v>
+      </c>
+      <c r="H30">
+        <v>7.2</v>
+      </c>
+      <c r="I30">
+        <v>490</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>115</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>15</v>
+      </c>
+      <c r="O30">
+        <v>250</v>
+      </c>
+      <c r="P30">
+        <v>270</v>
+      </c>
+      <c r="Q30">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -1767,13 +3013,49 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>2758</v>
+      </c>
+      <c r="H31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>117</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>22</v>
+      </c>
+      <c r="N31">
+        <v>15</v>
+      </c>
+      <c r="O31">
+        <v>265</v>
+      </c>
+      <c r="P31">
+        <v>345</v>
+      </c>
+      <c r="Q31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -1783,14 +3065,50 @@
       <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1">
+        <v>43500</v>
+      </c>
+      <c r="E32" t="s">
         <v>23</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>2573</v>
+      </c>
+      <c r="H32">
+        <v>7.2</v>
+      </c>
+      <c r="I32">
+        <v>502</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>114</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>21</v>
+      </c>
+      <c r="N32">
+        <v>15</v>
+      </c>
+      <c r="O32">
+        <v>240</v>
+      </c>
+      <c r="P32">
+        <v>1357</v>
+      </c>
+      <c r="Q32">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -1801,13 +3119,49 @@
         <v>100</v>
       </c>
       <c r="D33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>2549</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>110</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
+      <c r="N33">
+        <v>15</v>
+      </c>
+      <c r="O33">
+        <v>255</v>
+      </c>
+      <c r="P33">
+        <v>87</v>
+      </c>
+      <c r="Q33">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -1817,14 +3171,50 @@
       <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1">
+        <v>42837</v>
+      </c>
+      <c r="E34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>2221</v>
+      </c>
+      <c r="H34">
+        <v>7.2</v>
+      </c>
+      <c r="I34">
+        <v>545</v>
+      </c>
+      <c r="J34">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>120</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>13</v>
+      </c>
+      <c r="N34">
+        <v>15</v>
+      </c>
+      <c r="O34">
+        <v>240</v>
+      </c>
+      <c r="P34">
+        <v>220</v>
+      </c>
+      <c r="Q34">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -1834,14 +3224,50 @@
       <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>2016</v>
+      </c>
+      <c r="E35" t="s">
         <v>23</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>2524</v>
+      </c>
+      <c r="H35">
+        <v>7.6</v>
+      </c>
+      <c r="I35">
+        <v>468</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <v>112</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>250</v>
+      </c>
+      <c r="P35">
+        <v>78</v>
+      </c>
+      <c r="Q35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -1851,14 +3277,50 @@
       <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>2016</v>
+      </c>
+      <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>2526</v>
+      </c>
+      <c r="H36">
+        <v>6.6</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>126</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>15</v>
+      </c>
+      <c r="O36">
+        <v>265</v>
+      </c>
+      <c r="P36">
+        <v>189</v>
+      </c>
+      <c r="Q36">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -1869,13 +3331,49 @@
         <v>97</v>
       </c>
       <c r="D37" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" t="s">
         <v>32</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>2543</v>
+      </c>
+      <c r="H37">
+        <v>6.8</v>
+      </c>
+      <c r="I37">
+        <v>500</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>118</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>15</v>
+      </c>
+      <c r="O37">
+        <v>245</v>
+      </c>
+      <c r="P37">
+        <v>162</v>
+      </c>
+      <c r="Q37">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -1886,13 +3384,49 @@
         <v>113</v>
       </c>
       <c r="D38" t="s">
+        <v>325</v>
+      </c>
+      <c r="E38" t="s">
         <v>32</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>2401</v>
+      </c>
+      <c r="H38">
+        <v>7.6</v>
+      </c>
+      <c r="I38">
+        <v>550</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="K38">
+        <v>119</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="N38">
+        <v>15</v>
+      </c>
+      <c r="O38">
+        <v>240</v>
+      </c>
+      <c r="P38">
+        <v>16</v>
+      </c>
+      <c r="Q38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -1902,14 +3436,50 @@
       <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>2016</v>
+      </c>
+      <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>2709</v>
+      </c>
+      <c r="H39">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I39">
+        <v>440</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>116</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39">
+        <v>15</v>
+      </c>
+      <c r="O39">
+        <v>260</v>
+      </c>
+      <c r="P39">
+        <v>360</v>
+      </c>
+      <c r="Q39">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -1919,14 +3489,50 @@
       <c r="C40" t="s">
         <v>119</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1">
+        <v>44903</v>
+      </c>
+      <c r="E40" t="s">
         <v>13</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>2709</v>
+      </c>
+      <c r="H40">
+        <v>6.4</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>125</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>15</v>
+      </c>
+      <c r="O40">
+        <v>260</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -1936,14 +3542,50 @@
       <c r="C41" t="s">
         <v>122</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>2016</v>
+      </c>
+      <c r="E41" t="s">
         <v>18</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>2801</v>
+      </c>
+      <c r="H41">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>109</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>22</v>
+      </c>
+      <c r="N41">
+        <v>15</v>
+      </c>
+      <c r="O41">
+        <v>260</v>
+      </c>
+      <c r="P41">
+        <v>7</v>
+      </c>
+      <c r="Q41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -1953,14 +3595,50 @@
       <c r="C42" t="s">
         <v>97</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>2017</v>
+      </c>
+      <c r="E42" t="s">
         <v>13</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>2629</v>
+      </c>
+      <c r="H42">
+        <v>8.4</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>128</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>15</v>
+      </c>
+      <c r="O42">
+        <v>260</v>
+      </c>
+      <c r="P42">
+        <v>71</v>
+      </c>
+      <c r="Q42">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -1971,13 +3649,49 @@
         <v>127</v>
       </c>
       <c r="D43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>2819</v>
+      </c>
+      <c r="H43">
+        <v>12.4</v>
+      </c>
+      <c r="I43">
+        <v>440</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>120</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>18</v>
+      </c>
+      <c r="N43">
+        <v>15</v>
+      </c>
+      <c r="O43">
+        <v>245</v>
+      </c>
+      <c r="P43">
+        <v>244</v>
+      </c>
+      <c r="Q43">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -1987,14 +3701,50 @@
       <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>2016</v>
+      </c>
+      <c r="E44" t="s">
         <v>23</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>2478</v>
+      </c>
+      <c r="H44">
+        <v>6.4</v>
+      </c>
+      <c r="I44">
+        <v>570</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>110</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>13</v>
+      </c>
+      <c r="N44">
+        <v>15</v>
+      </c>
+      <c r="O44">
+        <v>240</v>
+      </c>
+      <c r="P44">
+        <v>13</v>
+      </c>
+      <c r="Q44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -2005,13 +3755,49 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
+        <v>327</v>
+      </c>
+      <c r="E45" t="s">
         <v>61</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>2370</v>
+      </c>
+      <c r="H45">
+        <v>5.4</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>15</v>
+      </c>
+      <c r="N45">
+        <v>15</v>
+      </c>
+      <c r="O45">
+        <v>240</v>
+      </c>
+      <c r="P45">
+        <v>309</v>
+      </c>
+      <c r="Q45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -2021,14 +3807,50 @@
       <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>2017</v>
+      </c>
+      <c r="E46" t="s">
         <v>13</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>2819</v>
+      </c>
+      <c r="H46">
+        <v>8.4</v>
+      </c>
+      <c r="I46">
+        <v>430</v>
+      </c>
+      <c r="J46">
+        <v>12</v>
+      </c>
+      <c r="K46">
+        <v>135</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>15</v>
+      </c>
+      <c r="O46">
+        <v>260</v>
+      </c>
+      <c r="P46">
+        <v>601</v>
+      </c>
+      <c r="Q46">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -2039,13 +3861,49 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
+        <v>328</v>
+      </c>
+      <c r="E47" t="s">
         <v>18</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>2528</v>
+      </c>
+      <c r="H47">
+        <v>7.8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>126</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>18</v>
+      </c>
+      <c r="N47">
+        <v>15</v>
+      </c>
+      <c r="O47">
+        <v>260</v>
+      </c>
+      <c r="P47">
+        <v>18</v>
+      </c>
+      <c r="Q47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -2055,14 +3913,50 @@
       <c r="C48" t="s">
         <v>138</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>2018</v>
+      </c>
+      <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>2578</v>
+      </c>
+      <c r="H48">
+        <v>7.8</v>
+      </c>
+      <c r="I48">
+        <v>460</v>
+      </c>
+      <c r="J48">
+        <v>16</v>
+      </c>
+      <c r="K48">
+        <v>119</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>15</v>
+      </c>
+      <c r="O48">
+        <v>260</v>
+      </c>
+      <c r="P48">
+        <v>117</v>
+      </c>
+      <c r="Q48">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -2073,13 +3967,49 @@
         <v>141</v>
       </c>
       <c r="D49" t="s">
+        <v>329</v>
+      </c>
+      <c r="E49" t="s">
         <v>61</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>2510</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>390</v>
+      </c>
+      <c r="J49">
+        <v>15</v>
+      </c>
+      <c r="K49">
+        <v>105</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>17</v>
+      </c>
+      <c r="N49">
+        <v>15</v>
+      </c>
+      <c r="O49">
+        <v>245</v>
+      </c>
+      <c r="P49">
+        <v>14</v>
+      </c>
+      <c r="Q49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -2089,14 +4019,50 @@
       <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1">
+        <v>43202</v>
+      </c>
+      <c r="E50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>2594</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>108</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>17</v>
+      </c>
+      <c r="N50">
+        <v>15</v>
+      </c>
+      <c r="O50">
+        <v>260</v>
+      </c>
+      <c r="P50">
+        <v>14</v>
+      </c>
+      <c r="Q50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -2107,13 +4073,49 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
+        <v>330</v>
+      </c>
+      <c r="E51" t="s">
         <v>23</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>2701</v>
+      </c>
+      <c r="H51">
+        <v>7.2</v>
+      </c>
+      <c r="I51">
+        <v>490</v>
+      </c>
+      <c r="J51">
+        <v>18</v>
+      </c>
+      <c r="K51">
+        <v>114</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>19</v>
+      </c>
+      <c r="N51">
+        <v>15</v>
+      </c>
+      <c r="O51">
+        <v>240</v>
+      </c>
+      <c r="P51">
+        <v>243</v>
+      </c>
+      <c r="Q51">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -2123,14 +4125,50 @@
       <c r="C52" t="s">
         <v>148</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1">
+        <v>42833</v>
+      </c>
+      <c r="E52" t="s">
         <v>23</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>2501</v>
+      </c>
+      <c r="H52">
+        <v>7.2</v>
+      </c>
+      <c r="I52">
+        <v>490</v>
+      </c>
+      <c r="J52">
+        <v>18</v>
+      </c>
+      <c r="K52">
+        <v>114</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>19</v>
+      </c>
+      <c r="N52">
+        <v>15</v>
+      </c>
+      <c r="O52">
+        <v>240</v>
+      </c>
+      <c r="P52">
+        <v>211</v>
+      </c>
+      <c r="Q52">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -2140,14 +4178,50 @@
       <c r="C53" t="s">
         <v>151</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53">
+        <v>2016</v>
+      </c>
+      <c r="E53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>2429</v>
+      </c>
+      <c r="H53">
+        <v>7.4</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>117</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>17</v>
+      </c>
+      <c r="N53">
+        <v>15</v>
+      </c>
+      <c r="O53">
+        <v>260</v>
+      </c>
+      <c r="P53">
+        <v>607</v>
+      </c>
+      <c r="Q53">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -2157,14 +4231,50 @@
       <c r="C54" t="s">
         <v>17</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <v>2017</v>
+      </c>
+      <c r="E54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>2599</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>440</v>
+      </c>
+      <c r="J54">
+        <v>16</v>
+      </c>
+      <c r="K54">
+        <v>121</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>17</v>
+      </c>
+      <c r="N54">
+        <v>15</v>
+      </c>
+      <c r="O54">
+        <v>255</v>
+      </c>
+      <c r="P54">
+        <v>173</v>
+      </c>
+      <c r="Q54">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -2174,14 +4284,50 @@
       <c r="C55" t="s">
         <v>156</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <v>2017</v>
+      </c>
+      <c r="E55" t="s">
         <v>18</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>2789</v>
+      </c>
+      <c r="H55">
+        <v>8.4</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>123</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>24</v>
+      </c>
+      <c r="N55">
+        <v>15</v>
+      </c>
+      <c r="O55">
+        <v>260</v>
+      </c>
+      <c r="P55">
+        <v>192</v>
+      </c>
+      <c r="Q55">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -2191,14 +4337,50 @@
       <c r="C56" t="s">
         <v>17</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56">
+        <v>2017</v>
+      </c>
+      <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>2909</v>
+      </c>
+      <c r="H56">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I56">
+        <v>430</v>
+      </c>
+      <c r="J56">
+        <v>12</v>
+      </c>
+      <c r="K56">
+        <v>105</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56">
+        <v>15</v>
+      </c>
+      <c r="O56">
+        <v>260</v>
+      </c>
+      <c r="P56">
+        <v>232</v>
+      </c>
+      <c r="Q56">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>159</v>
       </c>
@@ -2209,13 +4391,49 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
+        <v>331</v>
+      </c>
+      <c r="E57" t="s">
         <v>61</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>2540</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>118</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>17</v>
+      </c>
+      <c r="N57">
+        <v>15</v>
+      </c>
+      <c r="O57">
+        <v>260</v>
+      </c>
+      <c r="P57">
+        <v>114</v>
+      </c>
+      <c r="Q57">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -2225,14 +4443,50 @@
       <c r="C58" t="s">
         <v>17</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58">
+        <v>2018</v>
+      </c>
+      <c r="E58" t="s">
         <v>18</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>2658</v>
+      </c>
+      <c r="H58">
+        <v>7.8</v>
+      </c>
+      <c r="I58">
+        <v>430</v>
+      </c>
+      <c r="J58">
+        <v>16</v>
+      </c>
+      <c r="K58">
+        <v>119</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>24</v>
+      </c>
+      <c r="N58">
+        <v>15</v>
+      </c>
+      <c r="O58">
+        <v>255</v>
+      </c>
+      <c r="P58">
+        <v>470</v>
+      </c>
+      <c r="Q58">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -2242,14 +4496,50 @@
       <c r="C59" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59">
+        <v>2017</v>
+      </c>
+      <c r="E59" t="s">
         <v>13</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>2809</v>
+      </c>
+      <c r="H59">
+        <v>8.4</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>120</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59">
+        <v>15</v>
+      </c>
+      <c r="O59">
+        <v>255</v>
+      </c>
+      <c r="P59">
+        <v>68</v>
+      </c>
+      <c r="Q59">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -2260,13 +4550,49 @@
         <v>167</v>
       </c>
       <c r="D60" t="s">
+        <v>332</v>
+      </c>
+      <c r="E60" t="s">
         <v>18</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>2878</v>
+      </c>
+      <c r="H60">
+        <v>7.8</v>
+      </c>
+      <c r="I60">
+        <v>420</v>
+      </c>
+      <c r="J60">
+        <v>16</v>
+      </c>
+      <c r="K60">
+        <v>128</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>24</v>
+      </c>
+      <c r="N60">
+        <v>15</v>
+      </c>
+      <c r="O60">
+        <v>262</v>
+      </c>
+      <c r="P60">
+        <v>281</v>
+      </c>
+      <c r="Q60">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -2276,14 +4602,50 @@
       <c r="C61" t="s">
         <v>97</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <v>2018</v>
+      </c>
+      <c r="E61" t="s">
         <v>23</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>2491</v>
+      </c>
+      <c r="H61">
+        <v>7.2</v>
+      </c>
+      <c r="I61">
+        <v>495</v>
+      </c>
+      <c r="J61">
+        <v>18</v>
+      </c>
+      <c r="K61">
+        <v>105</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>18</v>
+      </c>
+      <c r="N61">
+        <v>15</v>
+      </c>
+      <c r="O61">
+        <v>240</v>
+      </c>
+      <c r="P61">
+        <v>198</v>
+      </c>
+      <c r="Q61">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -2293,14 +4655,50 @@
       <c r="C62" t="s">
         <v>172</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62">
+        <v>2016</v>
+      </c>
+      <c r="E62" t="s">
         <v>23</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>2556</v>
+      </c>
+      <c r="H62">
+        <v>7</v>
+      </c>
+      <c r="I62">
+        <v>519</v>
+      </c>
+      <c r="J62">
+        <v>21</v>
+      </c>
+      <c r="K62">
+        <v>118</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>19</v>
+      </c>
+      <c r="N62">
+        <v>10</v>
+      </c>
+      <c r="O62">
+        <v>240</v>
+      </c>
+      <c r="P62">
+        <v>714</v>
+      </c>
+      <c r="Q62">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -2310,14 +4708,50 @@
       <c r="C63" t="s">
         <v>97</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <v>2018</v>
+      </c>
+      <c r="E63" t="s">
         <v>18</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>2609</v>
+      </c>
+      <c r="H63">
+        <v>10.4</v>
+      </c>
+      <c r="I63">
+        <v>400</v>
+      </c>
+      <c r="J63">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <v>120</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>21</v>
+      </c>
+      <c r="N63">
+        <v>15</v>
+      </c>
+      <c r="O63">
+        <v>270</v>
+      </c>
+      <c r="P63">
+        <v>278</v>
+      </c>
+      <c r="Q63">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -2327,14 +4761,50 @@
       <c r="C64" t="s">
         <v>17</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <v>2016</v>
+      </c>
+      <c r="E64" t="s">
         <v>8</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>2633</v>
+      </c>
+      <c r="H64">
+        <v>7.8</v>
+      </c>
+      <c r="I64">
+        <v>431</v>
+      </c>
+      <c r="J64">
+        <v>16</v>
+      </c>
+      <c r="K64">
+        <v>121</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>20</v>
+      </c>
+      <c r="N64">
+        <v>15</v>
+      </c>
+      <c r="O64">
+        <v>260</v>
+      </c>
+      <c r="P64">
+        <v>403</v>
+      </c>
+      <c r="Q64">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>177</v>
       </c>
@@ -2344,14 +4814,50 @@
       <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1">
+        <v>42862</v>
+      </c>
+      <c r="E65" t="s">
         <v>61</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>2578</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>440</v>
+      </c>
+      <c r="J65">
+        <v>15</v>
+      </c>
+      <c r="K65">
+        <v>120</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>17</v>
+      </c>
+      <c r="N65">
+        <v>15</v>
+      </c>
+      <c r="O65">
+        <v>240</v>
+      </c>
+      <c r="P65">
+        <v>350</v>
+      </c>
+      <c r="Q65">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -2361,14 +4867,50 @@
       <c r="C66" t="s">
         <v>181</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1">
+        <v>43990</v>
+      </c>
+      <c r="E66" t="s">
         <v>18</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>2778</v>
+      </c>
+      <c r="H66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>109</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>23</v>
+      </c>
+      <c r="N66">
+        <v>15</v>
+      </c>
+      <c r="O66">
+        <v>250</v>
+      </c>
+      <c r="P66">
+        <v>174</v>
+      </c>
+      <c r="Q66">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>182</v>
       </c>
@@ -2378,14 +4920,50 @@
       <c r="C67" t="s">
         <v>97</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67">
+        <v>2019</v>
+      </c>
+      <c r="E67" t="s">
         <v>13</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>2770</v>
+      </c>
+      <c r="H67">
+        <v>9.4</v>
+      </c>
+      <c r="I67">
+        <v>460</v>
+      </c>
+      <c r="J67">
+        <v>15</v>
+      </c>
+      <c r="K67">
+        <v>117</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>19</v>
+      </c>
+      <c r="N67">
+        <v>15</v>
+      </c>
+      <c r="O67">
+        <v>255</v>
+      </c>
+      <c r="P67">
+        <v>689</v>
+      </c>
+      <c r="Q67">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -2396,13 +4974,49 @@
         <v>97</v>
       </c>
       <c r="D68" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" t="s">
         <v>61</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>2450</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>22</v>
+      </c>
+      <c r="N68">
+        <v>15</v>
+      </c>
+      <c r="O68">
+        <v>245</v>
+      </c>
+      <c r="P68">
+        <v>233</v>
+      </c>
+      <c r="Q68">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>186</v>
       </c>
@@ -2412,14 +5026,50 @@
       <c r="C69" t="s">
         <v>188</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69">
+        <v>2017</v>
+      </c>
+      <c r="E69" t="s">
         <v>8</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>2549</v>
+      </c>
+      <c r="H69">
+        <v>7</v>
+      </c>
+      <c r="I69">
+        <v>450</v>
+      </c>
+      <c r="J69">
+        <v>16</v>
+      </c>
+      <c r="K69">
+        <v>124</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>16</v>
+      </c>
+      <c r="N69">
+        <v>15</v>
+      </c>
+      <c r="O69">
+        <v>260</v>
+      </c>
+      <c r="P69">
+        <v>603</v>
+      </c>
+      <c r="Q69">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -2429,14 +5079,50 @@
       <c r="C70" t="s">
         <v>17</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1">
+        <v>42878</v>
+      </c>
+      <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>2628</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>119</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>21</v>
+      </c>
+      <c r="N70">
+        <v>15</v>
+      </c>
+      <c r="O70">
+        <v>260</v>
+      </c>
+      <c r="P70">
+        <v>239</v>
+      </c>
+      <c r="Q70">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>191</v>
       </c>
@@ -2446,14 +5132,50 @@
       <c r="C71" t="s">
         <v>193</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71">
+        <v>2016</v>
+      </c>
+      <c r="E71" t="s">
         <v>61</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>2500</v>
+      </c>
+      <c r="H71">
+        <v>5.4</v>
+      </c>
+      <c r="I71">
+        <v>424</v>
+      </c>
+      <c r="J71">
+        <v>14</v>
+      </c>
+      <c r="K71">
+        <v>125</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>15</v>
+      </c>
+      <c r="N71">
+        <v>15</v>
+      </c>
+      <c r="O71">
+        <v>240</v>
+      </c>
+      <c r="P71">
+        <v>8</v>
+      </c>
+      <c r="Q71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -2463,14 +5185,50 @@
       <c r="C72" t="s">
         <v>17</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72">
+        <v>2018</v>
+      </c>
+      <c r="E72" t="s">
         <v>18</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>2738</v>
+      </c>
+      <c r="H72">
+        <v>7</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>126</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>21</v>
+      </c>
+      <c r="N72">
+        <v>15</v>
+      </c>
+      <c r="O72">
+        <v>240</v>
+      </c>
+      <c r="P72">
+        <v>89</v>
+      </c>
+      <c r="Q72">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>196</v>
       </c>
@@ -2481,13 +5239,49 @@
         <v>97</v>
       </c>
       <c r="D73" t="s">
+        <v>334</v>
+      </c>
+      <c r="E73" t="s">
         <v>61</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>2490</v>
+      </c>
+      <c r="H73">
+        <v>7.2</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>240</v>
+      </c>
+      <c r="K73">
+        <v>131</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>14</v>
+      </c>
+      <c r="N73">
+        <v>15</v>
+      </c>
+      <c r="O73">
+        <v>240</v>
+      </c>
+      <c r="P73">
+        <v>19</v>
+      </c>
+      <c r="Q73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -2497,14 +5291,50 @@
       <c r="C74" t="s">
         <v>200</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74">
+        <v>2019</v>
+      </c>
+      <c r="E74" t="s">
         <v>8</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>2578</v>
+      </c>
+      <c r="H74">
+        <v>7.8</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>125</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>18</v>
+      </c>
+      <c r="N74">
+        <v>15</v>
+      </c>
+      <c r="O74">
+        <v>260</v>
+      </c>
+      <c r="P74">
+        <v>700</v>
+      </c>
+      <c r="Q74">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>201</v>
       </c>
@@ -2514,14 +5344,50 @@
       <c r="C75" t="s">
         <v>97</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75">
+        <v>2016</v>
+      </c>
+      <c r="E75" t="s">
         <v>32</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>2579</v>
+      </c>
+      <c r="H75">
+        <v>9.6</v>
+      </c>
+      <c r="I75">
+        <v>480</v>
+      </c>
+      <c r="J75">
+        <v>12</v>
+      </c>
+      <c r="K75">
+        <v>115</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>27</v>
+      </c>
+      <c r="N75">
+        <v>15</v>
+      </c>
+      <c r="O75">
+        <v>260</v>
+      </c>
+      <c r="P75">
+        <v>508</v>
+      </c>
+      <c r="Q75">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -2531,14 +5397,50 @@
       <c r="C76" t="s">
         <v>17</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76">
+        <v>2018</v>
+      </c>
+      <c r="E76" t="s">
         <v>23</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>2621</v>
+      </c>
+      <c r="H76">
+        <v>6.8</v>
+      </c>
+      <c r="I76">
+        <v>540</v>
+      </c>
+      <c r="J76">
+        <v>23</v>
+      </c>
+      <c r="K76">
+        <v>115</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>15</v>
+      </c>
+      <c r="N76">
+        <v>15</v>
+      </c>
+      <c r="O76">
+        <v>240</v>
+      </c>
+      <c r="P76">
+        <v>724</v>
+      </c>
+      <c r="Q76">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -2549,13 +5451,49 @@
         <v>207</v>
       </c>
       <c r="D77" t="s">
+        <v>335</v>
+      </c>
+      <c r="E77" t="s">
         <v>23</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>2601</v>
+      </c>
+      <c r="H77">
+        <v>7.2</v>
+      </c>
+      <c r="I77">
+        <v>520</v>
+      </c>
+      <c r="J77">
+        <v>21</v>
+      </c>
+      <c r="K77">
+        <v>107</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>20</v>
+      </c>
+      <c r="N77">
+        <v>15</v>
+      </c>
+      <c r="O77">
+        <v>250</v>
+      </c>
+      <c r="P77">
+        <v>165</v>
+      </c>
+      <c r="Q77">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -2566,13 +5504,49 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
+        <v>336</v>
+      </c>
+      <c r="E78" t="s">
         <v>23</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>2501</v>
+      </c>
+      <c r="H78">
+        <v>6.8</v>
+      </c>
+      <c r="I78">
+        <v>500</v>
+      </c>
+      <c r="J78">
+        <v>19</v>
+      </c>
+      <c r="K78">
+        <v>113</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>17</v>
+      </c>
+      <c r="N78">
+        <v>15</v>
+      </c>
+      <c r="O78">
+        <v>245</v>
+      </c>
+      <c r="P78">
+        <v>655</v>
+      </c>
+      <c r="Q78">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>210</v>
       </c>
@@ -2582,14 +5556,50 @@
       <c r="C79" t="s">
         <v>212</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1">
+        <v>44177</v>
+      </c>
+      <c r="E79" t="s">
         <v>32</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>2561</v>
+      </c>
+      <c r="H79">
+        <v>6.8</v>
+      </c>
+      <c r="I79">
+        <v>430</v>
+      </c>
+      <c r="J79">
+        <v>16</v>
+      </c>
+      <c r="K79">
+        <v>120</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>22</v>
+      </c>
+      <c r="N79">
+        <v>15</v>
+      </c>
+      <c r="O79">
+        <v>252</v>
+      </c>
+      <c r="P79">
+        <v>756</v>
+      </c>
+      <c r="Q79">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -2599,14 +5609,50 @@
       <c r="C80" t="s">
         <v>17</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80">
+        <v>2018</v>
+      </c>
+      <c r="E80" t="s">
         <v>18</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>2738</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>128</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>25</v>
+      </c>
+      <c r="N80">
+        <v>15</v>
+      </c>
+      <c r="O80">
+        <v>260</v>
+      </c>
+      <c r="P80">
+        <v>95</v>
+      </c>
+      <c r="Q80">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>215</v>
       </c>
@@ -2617,13 +5663,49 @@
         <v>217</v>
       </c>
       <c r="D81" t="s">
+        <v>337</v>
+      </c>
+      <c r="E81" t="s">
         <v>18</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>2043</v>
+      </c>
+      <c r="H81">
+        <v>3.8</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>91</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>10</v>
+      </c>
+      <c r="N81">
+        <v>15</v>
+      </c>
+      <c r="O81">
+        <v>250</v>
+      </c>
+      <c r="P81">
+        <v>321</v>
+      </c>
+      <c r="Q81">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>218</v>
       </c>
@@ -2634,13 +5716,49 @@
         <v>220</v>
       </c>
       <c r="D82" t="s">
+        <v>338</v>
+      </c>
+      <c r="E82" t="s">
         <v>61</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>2460</v>
+      </c>
+      <c r="H82">
+        <v>6.6</v>
+      </c>
+      <c r="I82">
+        <v>448</v>
+      </c>
+      <c r="J82">
+        <v>15</v>
+      </c>
+      <c r="K82">
+        <v>123</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>18</v>
+      </c>
+      <c r="N82">
+        <v>15</v>
+      </c>
+      <c r="O82">
+        <v>248</v>
+      </c>
+      <c r="P82">
+        <v>67</v>
+      </c>
+      <c r="Q82">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>221</v>
       </c>
@@ -2650,14 +5768,50 @@
       <c r="C83" t="s">
         <v>97</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83">
+        <v>2016</v>
+      </c>
+      <c r="E83" t="s">
         <v>13</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>2859</v>
+      </c>
+      <c r="H83">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>123</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>18</v>
+      </c>
+      <c r="N83">
+        <v>10</v>
+      </c>
+      <c r="O83">
+        <v>260</v>
+      </c>
+      <c r="P83">
+        <v>96</v>
+      </c>
+      <c r="Q83">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>223</v>
       </c>
@@ -2667,14 +5821,50 @@
       <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84">
+        <v>2018</v>
+      </c>
+      <c r="E84" t="s">
         <v>18</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>2698</v>
+      </c>
+      <c r="H84">
+        <v>7.4</v>
+      </c>
+      <c r="I84">
+        <v>380</v>
+      </c>
+      <c r="J84">
+        <v>16</v>
+      </c>
+      <c r="K84">
+        <v>121</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>23</v>
+      </c>
+      <c r="N84">
+        <v>15</v>
+      </c>
+      <c r="O84">
+        <v>260</v>
+      </c>
+      <c r="P84">
+        <v>20</v>
+      </c>
+      <c r="Q84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>225</v>
       </c>
@@ -2684,14 +5874,50 @@
       <c r="C85" t="s">
         <v>227</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1">
+        <v>42635</v>
+      </c>
+      <c r="E85" t="s">
         <v>61</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>2524</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>445</v>
+      </c>
+      <c r="J85">
+        <v>15</v>
+      </c>
+      <c r="K85">
+        <v>100</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>17</v>
+      </c>
+      <c r="N85">
+        <v>15</v>
+      </c>
+      <c r="O85">
+        <v>240</v>
+      </c>
+      <c r="P85">
+        <v>18</v>
+      </c>
+      <c r="Q85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>228</v>
       </c>
@@ -2701,14 +5927,50 @@
       <c r="C86" t="s">
         <v>17</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1">
+        <v>42814</v>
+      </c>
+      <c r="E86" t="s">
         <v>61</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>2455</v>
+      </c>
+      <c r="H86">
+        <v>6.4</v>
+      </c>
+      <c r="I86">
+        <v>420</v>
+      </c>
+      <c r="J86">
+        <v>15</v>
+      </c>
+      <c r="K86">
+        <v>125</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>16</v>
+      </c>
+      <c r="N86">
+        <v>15</v>
+      </c>
+      <c r="O86">
+        <v>240</v>
+      </c>
+      <c r="P86">
+        <v>42</v>
+      </c>
+      <c r="Q86">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>230</v>
       </c>
@@ -2718,14 +5980,50 @@
       <c r="C87" t="s">
         <v>232</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87">
+        <v>2016</v>
+      </c>
+      <c r="E87" t="s">
         <v>23</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>2501</v>
+      </c>
+      <c r="H87">
+        <v>6.8</v>
+      </c>
+      <c r="I87">
+        <v>510</v>
+      </c>
+      <c r="J87">
+        <v>18</v>
+      </c>
+      <c r="K87">
+        <v>115</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>17</v>
+      </c>
+      <c r="N87">
+        <v>15</v>
+      </c>
+      <c r="O87">
+        <v>250</v>
+      </c>
+      <c r="P87">
+        <v>26</v>
+      </c>
+      <c r="Q87">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -2736,13 +6034,49 @@
         <v>235</v>
       </c>
       <c r="D88" t="s">
+        <v>339</v>
+      </c>
+      <c r="E88" t="s">
         <v>61</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>2530</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>443</v>
+      </c>
+      <c r="J88">
+        <v>15</v>
+      </c>
+      <c r="K88">
+        <v>115</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>17</v>
+      </c>
+      <c r="N88">
+        <v>15</v>
+      </c>
+      <c r="O88">
+        <v>245</v>
+      </c>
+      <c r="P88">
+        <v>167</v>
+      </c>
+      <c r="Q88">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>236</v>
       </c>
@@ -2753,13 +6087,49 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
+        <v>340</v>
+      </c>
+      <c r="E89" t="s">
         <v>8</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>2639</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>486</v>
+      </c>
+      <c r="J89">
+        <v>16</v>
+      </c>
+      <c r="K89">
+        <v>121</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>18</v>
+      </c>
+      <c r="N89">
+        <v>15</v>
+      </c>
+      <c r="O89">
+        <v>260</v>
+      </c>
+      <c r="P89">
+        <v>173</v>
+      </c>
+      <c r="Q89">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>238</v>
       </c>
@@ -2770,13 +6140,49 @@
         <v>240</v>
       </c>
       <c r="D90" t="s">
+        <v>341</v>
+      </c>
+      <c r="E90" t="s">
         <v>23</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>2491</v>
+      </c>
+      <c r="H90">
+        <v>6.8</v>
+      </c>
+      <c r="I90">
+        <v>495</v>
+      </c>
+      <c r="J90">
+        <v>23</v>
+      </c>
+      <c r="K90">
+        <v>105</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>18</v>
+      </c>
+      <c r="N90">
+        <v>15</v>
+      </c>
+      <c r="O90">
+        <v>240</v>
+      </c>
+      <c r="P90">
+        <v>2</v>
+      </c>
+      <c r="Q90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>241</v>
       </c>
@@ -2786,14 +6192,50 @@
       <c r="C91" t="s">
         <v>17</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91">
+        <v>2017</v>
+      </c>
+      <c r="E91" t="s">
         <v>23</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>2421</v>
+      </c>
+      <c r="H91">
+        <v>6.8</v>
+      </c>
+      <c r="I91">
+        <v>490</v>
+      </c>
+      <c r="J91">
+        <v>18</v>
+      </c>
+      <c r="K91">
+        <v>109</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>17</v>
+      </c>
+      <c r="N91">
+        <v>15</v>
+      </c>
+      <c r="O91">
+        <v>240</v>
+      </c>
+      <c r="P91">
+        <v>668</v>
+      </c>
+      <c r="Q91">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>243</v>
       </c>
@@ -2803,14 +6245,50 @@
       <c r="C92" t="s">
         <v>245</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1">
+        <v>44505</v>
+      </c>
+      <c r="E92" t="s">
         <v>18</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>2828</v>
+      </c>
+      <c r="H92">
+        <v>10.8</v>
+      </c>
+      <c r="I92">
+        <v>430</v>
+      </c>
+      <c r="J92">
+        <v>21</v>
+      </c>
+      <c r="K92">
+        <v>132</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>25</v>
+      </c>
+      <c r="N92">
+        <v>15</v>
+      </c>
+      <c r="O92">
+        <v>252</v>
+      </c>
+      <c r="P92">
+        <v>309</v>
+      </c>
+      <c r="Q92">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>246</v>
       </c>
@@ -2821,13 +6299,49 @@
         <v>17</v>
       </c>
       <c r="D93" t="s">
+        <v>342</v>
+      </c>
+      <c r="E93" t="s">
         <v>61</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>2425</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>445</v>
+      </c>
+      <c r="J93">
+        <v>15</v>
+      </c>
+      <c r="K93">
+        <v>95</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>17</v>
+      </c>
+      <c r="N93">
+        <v>15</v>
+      </c>
+      <c r="O93">
+        <v>250</v>
+      </c>
+      <c r="P93">
+        <v>669</v>
+      </c>
+      <c r="Q93">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -2838,13 +6352,49 @@
         <v>250</v>
       </c>
       <c r="D94" t="s">
+        <v>343</v>
+      </c>
+      <c r="E94" t="s">
         <v>18</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>2798</v>
+      </c>
+      <c r="H94">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>121</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>22</v>
+      </c>
+      <c r="N94">
+        <v>15</v>
+      </c>
+      <c r="O94">
+        <v>260</v>
+      </c>
+      <c r="P94">
+        <v>1064</v>
+      </c>
+      <c r="Q94">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>251</v>
       </c>
@@ -2854,14 +6404,50 @@
       <c r="C95" t="s">
         <v>253</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95">
+        <v>2016</v>
+      </c>
+      <c r="E95" t="s">
         <v>32</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>2441</v>
+      </c>
+      <c r="H95">
+        <v>7.2</v>
+      </c>
+      <c r="I95">
+        <v>545</v>
+      </c>
+      <c r="J95">
+        <v>23</v>
+      </c>
+      <c r="K95">
+        <v>117</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>15</v>
+      </c>
+      <c r="N95">
+        <v>15</v>
+      </c>
+      <c r="O95">
+        <v>245</v>
+      </c>
+      <c r="P95">
+        <v>375</v>
+      </c>
+      <c r="Q95">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>254</v>
       </c>
@@ -2872,13 +6458,49 @@
         <v>97</v>
       </c>
       <c r="D96" t="s">
+        <v>344</v>
+      </c>
+      <c r="E96" t="s">
         <v>18</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>2730</v>
+      </c>
+      <c r="H96">
+        <v>7.2</v>
+      </c>
+      <c r="I96">
+        <v>450</v>
+      </c>
+      <c r="J96">
+        <v>15</v>
+      </c>
+      <c r="K96">
+        <v>128</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>22</v>
+      </c>
+      <c r="N96">
+        <v>15</v>
+      </c>
+      <c r="O96">
+        <v>240</v>
+      </c>
+      <c r="P96">
+        <v>361</v>
+      </c>
+      <c r="Q96">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -2888,14 +6510,50 @@
       <c r="C97" t="s">
         <v>97</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97">
+        <v>2017</v>
+      </c>
+      <c r="E97" t="s">
         <v>18</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>2646</v>
+      </c>
+      <c r="H97">
+        <v>7.8</v>
+      </c>
+      <c r="I97">
+        <v>453</v>
+      </c>
+      <c r="J97">
+        <v>31</v>
+      </c>
+      <c r="K97">
+        <v>121</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>25</v>
+      </c>
+      <c r="N97">
+        <v>15</v>
+      </c>
+      <c r="O97">
+        <v>260</v>
+      </c>
+      <c r="P97">
+        <v>547</v>
+      </c>
+      <c r="Q97">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -2906,13 +6564,49 @@
         <v>97</v>
       </c>
       <c r="D98" t="s">
+        <v>345</v>
+      </c>
+      <c r="E98" t="s">
         <v>8</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>2401</v>
+      </c>
+      <c r="H98">
+        <v>6.8</v>
+      </c>
+      <c r="I98">
+        <v>490</v>
+      </c>
+      <c r="J98">
+        <v>18</v>
+      </c>
+      <c r="K98">
+        <v>110</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>15</v>
+      </c>
+      <c r="N98">
+        <v>15</v>
+      </c>
+      <c r="O98">
+        <v>240</v>
+      </c>
+      <c r="P98">
+        <v>493</v>
+      </c>
+      <c r="Q98">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>260</v>
       </c>
@@ -2923,13 +6617,49 @@
         <v>17</v>
       </c>
       <c r="D99" t="s">
+        <v>346</v>
+      </c>
+      <c r="E99" t="s">
         <v>18</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>2868</v>
+      </c>
+      <c r="H99">
+        <v>7.8</v>
+      </c>
+      <c r="I99">
+        <v>430</v>
+      </c>
+      <c r="J99">
+        <v>16</v>
+      </c>
+      <c r="K99">
+        <v>126</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>22</v>
+      </c>
+      <c r="N99">
+        <v>15</v>
+      </c>
+      <c r="O99">
+        <v>255</v>
+      </c>
+      <c r="P99">
+        <v>88</v>
+      </c>
+      <c r="Q99">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>262</v>
       </c>
@@ -2939,14 +6669,50 @@
       <c r="C100" t="s">
         <v>17</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1">
+        <v>43561</v>
+      </c>
+      <c r="E100" t="s">
         <v>18</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>2728</v>
+      </c>
+      <c r="H100">
+        <v>10.8</v>
+      </c>
+      <c r="I100">
+        <v>430</v>
+      </c>
+      <c r="J100">
+        <v>21</v>
+      </c>
+      <c r="K100">
+        <v>129</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>19</v>
+      </c>
+      <c r="N100">
+        <v>15</v>
+      </c>
+      <c r="O100">
+        <v>255</v>
+      </c>
+      <c r="P100">
+        <v>103</v>
+      </c>
+      <c r="Q100">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>264</v>
       </c>
@@ -2956,14 +6722,50 @@
       <c r="C101" t="s">
         <v>17</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101">
+        <v>2018</v>
+      </c>
+      <c r="E101" t="s">
         <v>18</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>2758</v>
+      </c>
+      <c r="H101">
+        <v>7.4</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>107</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>17</v>
+      </c>
+      <c r="N101">
+        <v>15</v>
+      </c>
+      <c r="O101">
+        <v>250</v>
+      </c>
+      <c r="P101">
+        <v>582</v>
+      </c>
+      <c r="Q101">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>266</v>
       </c>
@@ -2973,14 +6775,50 @@
       <c r="C102" t="s">
         <v>17</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102">
+        <v>2018</v>
+      </c>
+      <c r="E102" t="s">
         <v>13</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>2489</v>
+      </c>
+      <c r="H102">
+        <v>6.4</v>
+      </c>
+      <c r="I102">
+        <v>455</v>
+      </c>
+      <c r="J102">
+        <v>12</v>
+      </c>
+      <c r="K102">
+        <v>115</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>15</v>
+      </c>
+      <c r="N102">
+        <v>15</v>
+      </c>
+      <c r="O102">
+        <v>260</v>
+      </c>
+      <c r="P102">
+        <v>596</v>
+      </c>
+      <c r="Q102">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>268</v>
       </c>
@@ -2991,13 +6829,49 @@
         <v>17</v>
       </c>
       <c r="D103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E103" t="s">
         <v>23</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>2401</v>
+      </c>
+      <c r="H103">
+        <v>6.8</v>
+      </c>
+      <c r="I103">
+        <v>490</v>
+      </c>
+      <c r="J103">
+        <v>21</v>
+      </c>
+      <c r="K103">
+        <v>115</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>15</v>
+      </c>
+      <c r="N103">
+        <v>15</v>
+      </c>
+      <c r="O103">
+        <v>250</v>
+      </c>
+      <c r="P103">
+        <v>53</v>
+      </c>
+      <c r="Q103">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>270</v>
       </c>
@@ -3007,14 +6881,50 @@
       <c r="C104" t="s">
         <v>272</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104">
+        <v>2021</v>
+      </c>
+      <c r="E104" t="s">
         <v>23</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>2701</v>
+      </c>
+      <c r="H104">
+        <v>7.2</v>
+      </c>
+      <c r="I104">
+        <v>510</v>
+      </c>
+      <c r="J104">
+        <v>19</v>
+      </c>
+      <c r="K104">
+        <v>115</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>21</v>
+      </c>
+      <c r="N104">
+        <v>15</v>
+      </c>
+      <c r="O104">
+        <v>240</v>
+      </c>
+      <c r="P104">
+        <v>270</v>
+      </c>
+      <c r="Q104">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>273</v>
       </c>
@@ -3024,14 +6934,50 @@
       <c r="C105" t="s">
         <v>17</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105">
+        <v>2018</v>
+      </c>
+      <c r="E105" t="s">
         <v>23</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>2516</v>
+      </c>
+      <c r="H105">
+        <v>6.8</v>
+      </c>
+      <c r="I105">
+        <v>495</v>
+      </c>
+      <c r="J105">
+        <v>18</v>
+      </c>
+      <c r="K105">
+        <v>105</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>20</v>
+      </c>
+      <c r="N105">
+        <v>15</v>
+      </c>
+      <c r="O105">
+        <v>245</v>
+      </c>
+      <c r="P105">
+        <v>129</v>
+      </c>
+      <c r="Q105">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>275</v>
       </c>
@@ -3041,14 +6987,50 @@
       <c r="C106" t="s">
         <v>17</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106">
+        <v>2017</v>
+      </c>
+      <c r="E106" t="s">
         <v>23</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>2481</v>
+      </c>
+      <c r="H106">
+        <v>7.6</v>
+      </c>
+      <c r="I106">
+        <v>490</v>
+      </c>
+      <c r="J106">
+        <v>20</v>
+      </c>
+      <c r="K106">
+        <v>112</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>17</v>
+      </c>
+      <c r="N106">
+        <v>15</v>
+      </c>
+      <c r="O106">
+        <v>245</v>
+      </c>
+      <c r="P106">
+        <v>5</v>
+      </c>
+      <c r="Q106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>277</v>
       </c>
@@ -3059,13 +7041,49 @@
         <v>279</v>
       </c>
       <c r="D107" t="s">
+        <v>348</v>
+      </c>
+      <c r="E107" t="s">
         <v>61</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>2540</v>
+      </c>
+      <c r="H107">
+        <v>5.4</v>
+      </c>
+      <c r="I107">
+        <v>424</v>
+      </c>
+      <c r="J107">
+        <v>14</v>
+      </c>
+      <c r="K107">
+        <v>95</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>15</v>
+      </c>
+      <c r="N107">
+        <v>15</v>
+      </c>
+      <c r="O107">
+        <v>245</v>
+      </c>
+      <c r="P107">
+        <v>413</v>
+      </c>
+      <c r="Q107">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>280</v>
       </c>
@@ -3076,13 +7094,49 @@
         <v>282</v>
       </c>
       <c r="D108" t="s">
+        <v>349</v>
+      </c>
+      <c r="E108" t="s">
         <v>23</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>2616</v>
+      </c>
+      <c r="H108">
+        <v>6.8</v>
+      </c>
+      <c r="I108">
+        <v>670</v>
+      </c>
+      <c r="J108">
+        <v>26</v>
+      </c>
+      <c r="K108">
+        <v>111</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>15</v>
+      </c>
+      <c r="N108">
+        <v>15</v>
+      </c>
+      <c r="O108">
+        <v>250</v>
+      </c>
+      <c r="P108">
+        <v>252</v>
+      </c>
+      <c r="Q108">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>283</v>
       </c>
@@ -3092,14 +7146,50 @@
       <c r="C109" t="s">
         <v>17</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1">
+        <v>43716</v>
+      </c>
+      <c r="E109" t="s">
         <v>18</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>918</v>
+      </c>
+      <c r="H109">
+        <v>7.8</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>117</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>25</v>
+      </c>
+      <c r="N109">
+        <v>15</v>
+      </c>
+      <c r="O109">
+        <v>260</v>
+      </c>
+      <c r="P109">
+        <v>318</v>
+      </c>
+      <c r="Q109">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>285</v>
       </c>
@@ -3110,13 +7200,46 @@
         <v>97</v>
       </c>
       <c r="D110" t="s">
+        <v>350</v>
+      </c>
+      <c r="E110" t="s">
         <v>8</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>2578</v>
+      </c>
+      <c r="H110">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>109</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>21</v>
+      </c>
+      <c r="N110">
+        <v>15</v>
+      </c>
+      <c r="O110">
+        <v>252</v>
+      </c>
+      <c r="P110">
+        <v>52</v>
+      </c>
+      <c r="Q110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3126,14 +7249,50 @@
       <c r="C111" t="s">
         <v>289</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111">
+        <v>2017</v>
+      </c>
+      <c r="E111" t="s">
         <v>18</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>2570</v>
+      </c>
+      <c r="H111">
+        <v>7.2</v>
+      </c>
+      <c r="I111">
+        <v>438</v>
+      </c>
+      <c r="J111">
+        <v>15</v>
+      </c>
+      <c r="K111">
+        <v>100</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>22</v>
+      </c>
+      <c r="N111">
+        <v>15</v>
+      </c>
+      <c r="O111">
+        <v>250</v>
+      </c>
+      <c r="P111">
+        <v>443</v>
+      </c>
+      <c r="Q111">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>290</v>
       </c>
@@ -3144,13 +7303,49 @@
         <v>292</v>
       </c>
       <c r="D112" t="s">
+        <v>351</v>
+      </c>
+      <c r="E112" t="s">
         <v>23</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>2698</v>
+      </c>
+      <c r="H112">
+        <v>11.8</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>129</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>21</v>
+      </c>
+      <c r="N112">
+        <v>15</v>
+      </c>
+      <c r="O112">
+        <v>245</v>
+      </c>
+      <c r="P112">
+        <v>550</v>
+      </c>
+      <c r="Q112">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>293</v>
       </c>
@@ -3160,14 +7355,50 @@
       <c r="C113" t="s">
         <v>295</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1">
+        <v>44532</v>
+      </c>
+      <c r="E113" t="s">
         <v>23</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>2651</v>
+      </c>
+      <c r="H113">
+        <v>7.2</v>
+      </c>
+      <c r="I113">
+        <v>510</v>
+      </c>
+      <c r="J113">
+        <v>21</v>
+      </c>
+      <c r="K113">
+        <v>115</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>19</v>
+      </c>
+      <c r="N113">
+        <v>15</v>
+      </c>
+      <c r="O113">
+        <v>255</v>
+      </c>
+      <c r="P113">
+        <v>834</v>
+      </c>
+      <c r="Q113">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>296</v>
       </c>
@@ -3178,10 +7409,84 @@
         <v>298</v>
       </c>
       <c r="D114" t="s">
+        <v>352</v>
+      </c>
+      <c r="E114" t="s">
         <v>18</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>62</v>
+      </c>
+      <c r="G114">
+        <v>2401</v>
+      </c>
+      <c r="H114">
+        <v>6.8</v>
+      </c>
+      <c r="I114">
+        <v>490</v>
+      </c>
+      <c r="J114">
+        <v>20</v>
+      </c>
+      <c r="K114">
+        <v>107</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>15</v>
+      </c>
+      <c r="N114">
+        <v>15</v>
+      </c>
+      <c r="O114">
+        <v>240</v>
+      </c>
+      <c r="P114">
+        <v>37</v>
+      </c>
+      <c r="Q114">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>2016</v>
+      </c>
+      <c r="G115">
+        <v>2689</v>
+      </c>
+      <c r="H115">
+        <v>7</v>
+      </c>
+      <c r="I115">
+        <v>405</v>
+      </c>
+      <c r="J115">
+        <v>16</v>
+      </c>
+      <c r="K115">
+        <v>123</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>25</v>
+      </c>
+      <c r="N115">
+        <v>15</v>
+      </c>
+      <c r="O115">
+        <v>265</v>
+      </c>
+      <c r="P115">
+        <v>5</v>
+      </c>
+      <c r="Q115">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/MLBB_HEROES_Klastering.xlsx
+++ b/MLBB_HEROES_Klastering.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="310">
   <si>
     <t>Name</t>
   </si>
@@ -954,135 +954,6 @@
   </si>
   <si>
     <t>Esport_Loss</t>
-  </si>
-  <si>
-    <t>Release_Date</t>
-  </si>
-  <si>
-    <t>10/25/2021</t>
-  </si>
-  <si>
-    <t>3/20/2020</t>
-  </si>
-  <si>
-    <t>8/31/2021</t>
-  </si>
-  <si>
-    <t>1/15/2019</t>
-  </si>
-  <si>
-    <t>9/18/2020</t>
-  </si>
-  <si>
-    <t>3/19/2021</t>
-  </si>
-  <si>
-    <t>12/17/2018</t>
-  </si>
-  <si>
-    <t>10/16/2020</t>
-  </si>
-  <si>
-    <t>1/17/2020</t>
-  </si>
-  <si>
-    <t>5/30/2018</t>
-  </si>
-  <si>
-    <t>11/19/2017</t>
-  </si>
-  <si>
-    <t>6/25/2019</t>
-  </si>
-  <si>
-    <t>12/24/2021</t>
-  </si>
-  <si>
-    <t>5/18/2019</t>
-  </si>
-  <si>
-    <t>9/22/2021</t>
-  </si>
-  <si>
-    <t>4/16/2021</t>
-  </si>
-  <si>
-    <t>4/19/2019</t>
-  </si>
-  <si>
-    <t>2/21/2019</t>
-  </si>
-  <si>
-    <t>4/17/2018</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>8/15/2017</t>
-  </si>
-  <si>
-    <t>5/24/2022</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>5/16/2020</t>
-  </si>
-  <si>
-    <t>7/23/2019</t>
-  </si>
-  <si>
-    <t>9/17/2019</t>
-  </si>
-  <si>
-    <t>2/22/2022</t>
-  </si>
-  <si>
-    <t>7/23/2021</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>9/29/2017</t>
-  </si>
-  <si>
-    <t>4/21/2020</t>
-  </si>
-  <si>
-    <t>1/15/2021</t>
-  </si>
-  <si>
-    <t>6/25/2017</t>
-  </si>
-  <si>
-    <t>7/18/2018</t>
-  </si>
-  <si>
-    <t>12/17/2019</t>
-  </si>
-  <si>
-    <t>1/29/2019</t>
-  </si>
-  <si>
-    <t>11/26/2019</t>
-  </si>
-  <si>
-    <t>3/22/2022</t>
-  </si>
-  <si>
-    <t>1/18/2022</t>
-  </si>
-  <si>
-    <t>6/19/2020</t>
-  </si>
-  <si>
-    <t>11/27/2017</t>
   </si>
 </sst>
 </file>
@@ -1118,9 +989,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -1412,7 +1282,7 @@
     <col min="3" max="3" width="66.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1423,49 +1293,46 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="G1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P1" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1476,49 +1343,46 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>2614</v>
+      </c>
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>2614</v>
-      </c>
       <c r="H2">
-        <v>8</v>
+        <v>455</v>
       </c>
       <c r="I2">
-        <v>455</v>
+        <v>21</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="K2">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O2">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="P2">
-        <v>43</v>
-      </c>
-      <c r="Q2">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1528,50 +1392,47 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>2016</v>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="F3">
+        <v>2769</v>
+      </c>
       <c r="G3">
-        <v>2769</v>
+        <v>8.4</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
+        <v>422</v>
       </c>
       <c r="I3">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="K3">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O3">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="P3">
-        <v>540</v>
-      </c>
-      <c r="Q3">
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1581,50 +1442,47 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>2018</v>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>2718</v>
+      </c>
+      <c r="G4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H4">
+        <v>405</v>
+      </c>
+      <c r="I4">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>2718</v>
-      </c>
-      <c r="H4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I4">
-        <v>405</v>
-      </c>
       <c r="J4">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="K4">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N4">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O4">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="P4">
-        <v>95</v>
-      </c>
-      <c r="Q4">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1634,50 +1492,47 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>2016</v>
+      <c r="D5" t="s">
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
         <v>19</v>
       </c>
+      <c r="F5">
+        <v>2573</v>
+      </c>
       <c r="G5">
-        <v>2573</v>
+        <v>7.2</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>493</v>
       </c>
       <c r="I5">
-        <v>493</v>
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="K5">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N5">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O5">
-        <v>240</v>
+        <v>364</v>
       </c>
       <c r="P5">
-        <v>364</v>
-      </c>
-      <c r="Q5">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1687,50 +1542,47 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6">
-        <v>2017</v>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
         <v>19</v>
       </c>
+      <c r="F6">
+        <v>2646</v>
+      </c>
       <c r="G6">
-        <v>2646</v>
+        <v>7.8</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>453</v>
       </c>
       <c r="I6">
-        <v>453</v>
+        <v>31</v>
       </c>
       <c r="J6">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="K6">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O6">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="P6">
-        <v>24</v>
-      </c>
-      <c r="Q6">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1740,50 +1592,47 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7">
-        <v>2016</v>
+      <c r="D7" t="s">
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
         <v>9</v>
       </c>
+      <c r="F7">
+        <v>2621</v>
+      </c>
       <c r="G7">
-        <v>2621</v>
+        <v>7.8</v>
       </c>
       <c r="H7">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="K7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O7">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="P7">
-        <v>22</v>
-      </c>
-      <c r="Q7">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1793,50 +1642,47 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1">
-        <v>43253</v>
+      <c r="D8" t="s">
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
         <v>14</v>
       </c>
+      <c r="F8">
+        <v>2421</v>
+      </c>
       <c r="G8">
-        <v>2421</v>
+        <v>6.8</v>
       </c>
       <c r="H8">
-        <v>6.8</v>
+        <v>515</v>
       </c>
       <c r="I8">
-        <v>515</v>
+        <v>18</v>
       </c>
       <c r="J8">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="K8">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M8">
         <v>15</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O8">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P8">
-        <v>253</v>
-      </c>
-      <c r="Q8">
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1846,50 +1692,47 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>2017</v>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
         <v>19</v>
       </c>
+      <c r="F9">
+        <v>2628</v>
+      </c>
       <c r="G9">
-        <v>2628</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O9">
-        <v>260</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1900,49 +1743,46 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
         <v>14</v>
       </c>
+      <c r="F10">
+        <v>2819</v>
+      </c>
       <c r="G10">
-        <v>2819</v>
+        <v>8.4</v>
       </c>
       <c r="H10">
-        <v>8.4</v>
+        <v>440</v>
       </c>
       <c r="I10">
-        <v>440</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="K10">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N10">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O10">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="P10">
-        <v>277</v>
-      </c>
-      <c r="Q10">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1952,50 +1792,47 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1">
-        <v>42864</v>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
       <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11">
+        <v>2501</v>
+      </c>
+      <c r="G11">
+        <v>6.8</v>
+      </c>
+      <c r="H11">
+        <v>750</v>
+      </c>
+      <c r="I11">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <v>2501</v>
-      </c>
-      <c r="H11">
-        <v>6.8</v>
-      </c>
-      <c r="I11">
-        <v>750</v>
-      </c>
       <c r="J11">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="K11">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O11">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="P11">
-        <v>28</v>
-      </c>
-      <c r="Q11">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2006,49 +1843,46 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
         <v>19</v>
       </c>
+      <c r="F12">
+        <v>2758</v>
+      </c>
       <c r="G12">
-        <v>2758</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H12">
-        <v>10.199999999999999</v>
+        <v>410</v>
       </c>
       <c r="I12">
-        <v>410</v>
+        <v>17</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K12">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O12">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="P12">
-        <v>114</v>
-      </c>
-      <c r="Q12">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2059,49 +1893,46 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
         <v>19</v>
       </c>
+      <c r="F13">
+        <v>2708</v>
+      </c>
       <c r="G13">
-        <v>2708</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="K13">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N13">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O13">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="P13">
-        <v>15</v>
-      </c>
-      <c r="Q13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2111,50 +1942,47 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
-        <v>2016</v>
+      <c r="D14" t="s">
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
         <v>19</v>
       </c>
+      <c r="F14">
+        <v>2736</v>
+      </c>
       <c r="G14">
-        <v>2736</v>
+        <v>9.4</v>
       </c>
       <c r="H14">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="K14">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N14">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O14">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="P14">
-        <v>301</v>
-      </c>
-      <c r="Q14">
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2164,50 +1992,47 @@
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15">
-        <v>2016</v>
+      <c r="D15" t="s">
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
         <v>9</v>
       </c>
+      <c r="F15">
+        <v>2559</v>
+      </c>
       <c r="G15">
-        <v>2559</v>
+        <v>8.4</v>
       </c>
       <c r="H15">
-        <v>8.4</v>
+        <v>433</v>
       </c>
       <c r="I15">
-        <v>433</v>
+        <v>12</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="K15">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N15">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O15">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="P15">
-        <v>95</v>
-      </c>
-      <c r="Q15">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2218,49 +2043,46 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
         <v>19</v>
       </c>
+      <c r="F16">
+        <v>2559</v>
+      </c>
       <c r="G16">
-        <v>2559</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H16">
-        <v>8.8000000000000007</v>
+        <v>430</v>
       </c>
       <c r="I16">
-        <v>430</v>
+        <v>15</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="K16">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N16">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="O16">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="P16">
-        <v>327</v>
-      </c>
-      <c r="Q16">
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2270,50 +2092,47 @@
       <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="1">
-        <v>43687</v>
+      <c r="D17" t="s">
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
         <v>9</v>
       </c>
+      <c r="F17">
+        <v>2769</v>
+      </c>
       <c r="G17">
-        <v>2769</v>
+        <v>8.4</v>
       </c>
       <c r="H17">
-        <v>8.4</v>
+        <v>422</v>
       </c>
       <c r="I17">
-        <v>422</v>
+        <v>15</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="K17">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N17">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O17">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="P17">
-        <v>450</v>
-      </c>
-      <c r="Q17">
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2324,49 +2143,46 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
         <v>62</v>
       </c>
+      <c r="F18">
+        <v>2550</v>
+      </c>
       <c r="G18">
-        <v>2550</v>
+        <v>7.2</v>
       </c>
       <c r="H18">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K18">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N18">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c r="O18">
-        <v>257</v>
+        <v>1016</v>
       </c>
       <c r="P18">
-        <v>1016</v>
-      </c>
-      <c r="Q18">
         <v>969</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -2377,49 +2193,46 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
         <v>14</v>
       </c>
+      <c r="F19">
+        <v>2569</v>
+      </c>
       <c r="G19">
-        <v>2569</v>
+        <v>8.4</v>
       </c>
       <c r="H19">
-        <v>8.4</v>
+        <v>450</v>
       </c>
       <c r="I19">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="K19">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M19">
         <v>15</v>
       </c>
       <c r="N19">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O19">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="P19">
-        <v>57</v>
-      </c>
-      <c r="Q19">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2429,50 +2242,47 @@
       <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1">
-        <v>44023</v>
+      <c r="D20" t="s">
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
         <v>19</v>
       </c>
+      <c r="F20">
+        <v>2569</v>
+      </c>
       <c r="G20">
-        <v>2569</v>
+        <v>6.6</v>
       </c>
       <c r="H20">
-        <v>6.6</v>
+        <v>460</v>
       </c>
       <c r="I20">
-        <v>460</v>
+        <v>16</v>
       </c>
       <c r="J20">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="K20">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N20">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O20">
-        <v>255</v>
+        <v>477</v>
       </c>
       <c r="P20">
-        <v>477</v>
-      </c>
-      <c r="Q20">
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2483,49 +2293,46 @@
         <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s">
         <v>62</v>
       </c>
+      <c r="F21">
+        <v>2490</v>
+      </c>
       <c r="G21">
-        <v>2490</v>
+        <v>7.2</v>
       </c>
       <c r="H21">
-        <v>7.2</v>
+        <v>435</v>
       </c>
       <c r="I21">
-        <v>435</v>
+        <v>15</v>
       </c>
       <c r="J21">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="K21">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N21">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="O21">
-        <v>253</v>
+        <v>470</v>
       </c>
       <c r="P21">
-        <v>470</v>
-      </c>
-      <c r="Q21">
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -2535,50 +2342,47 @@
       <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22">
-        <v>2016</v>
+      <c r="D22" t="s">
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s">
         <v>62</v>
       </c>
+      <c r="F22">
+        <v>2522</v>
+      </c>
       <c r="G22">
-        <v>2522</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>439</v>
       </c>
       <c r="I22">
-        <v>439</v>
+        <v>15</v>
       </c>
       <c r="J22">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="K22">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N22">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O22">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="P22">
         <v>154</v>
       </c>
-      <c r="Q22">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -2589,49 +2393,46 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>2528</v>
+      </c>
+      <c r="G23">
+        <v>7.8</v>
+      </c>
+      <c r="H23">
+        <v>430</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>126</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>255</v>
+      </c>
+      <c r="O23">
         <v>32</v>
       </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23">
-        <v>2528</v>
-      </c>
-      <c r="H23">
-        <v>7.8</v>
-      </c>
-      <c r="I23">
-        <v>430</v>
-      </c>
-      <c r="J23">
-        <v>16</v>
-      </c>
-      <c r="K23">
-        <v>126</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>25</v>
-      </c>
-      <c r="N23">
-        <v>15</v>
-      </c>
-      <c r="O23">
-        <v>255</v>
-      </c>
       <c r="P23">
-        <v>32</v>
-      </c>
-      <c r="Q23">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -2641,50 +2442,47 @@
       <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="1">
-        <v>44167</v>
+      <c r="D24" t="s">
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
         <v>41</v>
       </c>
+      <c r="F24">
+        <v>2456</v>
+      </c>
       <c r="G24">
-        <v>2456</v>
+        <v>6.8</v>
       </c>
       <c r="H24">
-        <v>6.8</v>
+        <v>700</v>
       </c>
       <c r="I24">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="J24">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="K24">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N24">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O24">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="P24">
-        <v>470</v>
-      </c>
-      <c r="Q24">
         <v>588</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -2695,49 +2493,46 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
         <v>41</v>
       </c>
+      <c r="F25">
+        <v>2301</v>
+      </c>
       <c r="G25">
-        <v>2301</v>
+        <v>6.8</v>
       </c>
       <c r="H25">
-        <v>6.8</v>
+        <v>505</v>
       </c>
       <c r="I25">
-        <v>505</v>
+        <v>21</v>
       </c>
       <c r="J25">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="K25">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N25">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O25">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="P25">
-        <v>221</v>
-      </c>
-      <c r="Q25">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2747,50 +2542,47 @@
       <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26">
-        <v>2016</v>
+      <c r="D26" t="s">
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
         <v>62</v>
       </c>
+      <c r="F26">
+        <v>2708</v>
+      </c>
       <c r="G26">
-        <v>2708</v>
+        <v>7.8</v>
       </c>
       <c r="H26">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="K26">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N26">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O26">
-        <v>260</v>
+        <v>1139</v>
       </c>
       <c r="P26">
-        <v>1139</v>
-      </c>
-      <c r="Q26">
         <v>1057</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -2800,50 +2592,47 @@
       <c r="C27" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="1">
-        <v>43289</v>
+      <c r="D27" t="s">
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" t="s">
         <v>62</v>
       </c>
+      <c r="F27">
+        <v>2370</v>
+      </c>
       <c r="G27">
-        <v>2370</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>450</v>
       </c>
       <c r="I27">
-        <v>450</v>
+        <v>16</v>
       </c>
       <c r="J27">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K27">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N27">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O27">
-        <v>240</v>
+        <v>618</v>
       </c>
       <c r="P27">
-        <v>618</v>
-      </c>
-      <c r="Q27">
         <v>583</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -2853,50 +2642,47 @@
       <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="D28">
-        <v>2016</v>
+      <c r="D28" t="s">
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" t="s">
         <v>62</v>
       </c>
+      <c r="F28">
+        <v>2530</v>
+      </c>
       <c r="G28">
-        <v>2530</v>
+        <v>7.2</v>
       </c>
       <c r="H28">
-        <v>7.2</v>
+        <v>450</v>
       </c>
       <c r="I28">
-        <v>450</v>
+        <v>15</v>
       </c>
       <c r="J28">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="K28">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N28">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O28">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="P28">
-        <v>540</v>
-      </c>
-      <c r="Q28">
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -2906,50 +2692,47 @@
       <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D29">
-        <v>2017</v>
+      <c r="D29" t="s">
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
         <v>41</v>
       </c>
+      <c r="F29">
+        <v>2521</v>
+      </c>
       <c r="G29">
-        <v>2521</v>
+        <v>7.6</v>
       </c>
       <c r="H29">
-        <v>7.6</v>
+        <v>500</v>
       </c>
       <c r="I29">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="J29">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="K29">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N29">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O29">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="P29">
-        <v>69</v>
-      </c>
-      <c r="Q29">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -2960,49 +2743,46 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" t="s">
         <v>14</v>
       </c>
+      <c r="F30">
+        <v>2468</v>
+      </c>
       <c r="G30">
-        <v>2468</v>
+        <v>7.2</v>
       </c>
       <c r="H30">
-        <v>7.2</v>
+        <v>490</v>
       </c>
       <c r="I30">
-        <v>490</v>
+        <v>20</v>
       </c>
       <c r="J30">
+        <v>115</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>20</v>
       </c>
-      <c r="K30">
-        <v>115</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
       <c r="M30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O30">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="P30">
-        <v>270</v>
-      </c>
-      <c r="Q30">
         <v>318</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3013,49 +2793,46 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s">
         <v>19</v>
       </c>
+      <c r="F31">
+        <v>2758</v>
+      </c>
       <c r="G31">
-        <v>2758</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H31">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="K31">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="O31">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="P31">
-        <v>345</v>
-      </c>
-      <c r="Q31">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -3065,50 +2842,47 @@
       <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="1">
-        <v>43500</v>
+      <c r="D32" t="s">
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" t="s">
         <v>19</v>
       </c>
+      <c r="F32">
+        <v>2573</v>
+      </c>
       <c r="G32">
-        <v>2573</v>
+        <v>7.2</v>
       </c>
       <c r="H32">
-        <v>7.2</v>
+        <v>502</v>
       </c>
       <c r="I32">
-        <v>502</v>
+        <v>20</v>
       </c>
       <c r="J32">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="K32">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N32">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O32">
-        <v>240</v>
+        <v>1357</v>
       </c>
       <c r="P32">
-        <v>1357</v>
-      </c>
-      <c r="Q32">
         <v>1529</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -3119,49 +2893,46 @@
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
         <v>19</v>
       </c>
+      <c r="F33">
+        <v>2549</v>
+      </c>
       <c r="G33">
-        <v>2549</v>
+        <v>9</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K33">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M33">
         <v>15</v>
       </c>
       <c r="N33">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O33">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="P33">
-        <v>87</v>
-      </c>
-      <c r="Q33">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -3171,50 +2942,47 @@
       <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="1">
-        <v>42837</v>
+      <c r="D34" t="s">
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
         <v>14</v>
       </c>
+      <c r="F34">
+        <v>2221</v>
+      </c>
       <c r="G34">
-        <v>2221</v>
+        <v>7.2</v>
       </c>
       <c r="H34">
-        <v>7.2</v>
+        <v>545</v>
       </c>
       <c r="I34">
-        <v>545</v>
+        <v>18</v>
       </c>
       <c r="J34">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="K34">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N34">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O34">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="P34">
-        <v>220</v>
-      </c>
-      <c r="Q34">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -3224,50 +2992,47 @@
       <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="D35">
-        <v>2016</v>
+      <c r="D35" t="s">
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" t="s">
         <v>41</v>
       </c>
+      <c r="F35">
+        <v>2524</v>
+      </c>
       <c r="G35">
-        <v>2524</v>
+        <v>7.6</v>
       </c>
       <c r="H35">
-        <v>7.6</v>
+        <v>468</v>
       </c>
       <c r="I35">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="J35">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="K35">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N35">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O35">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="P35">
-        <v>78</v>
-      </c>
-      <c r="Q35">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -3277,50 +3042,47 @@
       <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="D36">
-        <v>2016</v>
+      <c r="D36" t="s">
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
         <v>9</v>
       </c>
+      <c r="F36">
+        <v>2526</v>
+      </c>
       <c r="G36">
-        <v>2526</v>
+        <v>6.6</v>
       </c>
       <c r="H36">
-        <v>6.6</v>
+        <v>100</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="K36">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N36">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="O36">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="P36">
-        <v>189</v>
-      </c>
-      <c r="Q36">
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -3331,49 +3093,46 @@
         <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
         <v>14</v>
       </c>
+      <c r="F37">
+        <v>2543</v>
+      </c>
       <c r="G37">
-        <v>2543</v>
+        <v>6.8</v>
       </c>
       <c r="H37">
-        <v>6.8</v>
+        <v>500</v>
       </c>
       <c r="I37">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="J37">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>15</v>
+      </c>
+      <c r="N37">
+        <v>245</v>
+      </c>
+      <c r="O37">
+        <v>162</v>
+      </c>
+      <c r="P37">
         <v>118</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>20</v>
-      </c>
-      <c r="N37">
-        <v>15</v>
-      </c>
-      <c r="O37">
-        <v>245</v>
-      </c>
-      <c r="P37">
-        <v>162</v>
-      </c>
-      <c r="Q37">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -3384,49 +3143,46 @@
         <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>2401</v>
+      </c>
+      <c r="G38">
+        <v>7.6</v>
+      </c>
+      <c r="H38">
+        <v>550</v>
+      </c>
+      <c r="I38">
+        <v>22</v>
+      </c>
+      <c r="J38">
+        <v>119</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>12</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>240</v>
+      </c>
+      <c r="O38">
+        <v>16</v>
+      </c>
+      <c r="P38">
         <v>32</v>
       </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38">
-        <v>2401</v>
-      </c>
-      <c r="H38">
-        <v>7.6</v>
-      </c>
-      <c r="I38">
-        <v>550</v>
-      </c>
-      <c r="J38">
-        <v>22</v>
-      </c>
-      <c r="K38">
-        <v>119</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>12</v>
-      </c>
-      <c r="N38">
-        <v>15</v>
-      </c>
-      <c r="O38">
-        <v>240</v>
-      </c>
-      <c r="P38">
-        <v>16</v>
-      </c>
-      <c r="Q38">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -3436,50 +3192,47 @@
       <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="D39">
-        <v>2016</v>
+      <c r="D39" t="s">
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
         <v>14</v>
       </c>
+      <c r="F39">
+        <v>2709</v>
+      </c>
       <c r="G39">
-        <v>2709</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H39">
-        <v>9.1999999999999993</v>
+        <v>440</v>
       </c>
       <c r="I39">
-        <v>440</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="K39">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N39">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O39">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="P39">
-        <v>360</v>
-      </c>
-      <c r="Q39">
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -3489,50 +3242,47 @@
       <c r="C40" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="1">
-        <v>44903</v>
+      <c r="D40" t="s">
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
         <v>19</v>
       </c>
+      <c r="F40">
+        <v>2709</v>
+      </c>
       <c r="G40">
-        <v>2709</v>
+        <v>6.4</v>
       </c>
       <c r="H40">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="K40">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O40">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -3542,50 +3292,47 @@
       <c r="C41" t="s">
         <v>122</v>
       </c>
-      <c r="D41">
-        <v>2016</v>
+      <c r="D41" t="s">
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
         <v>19</v>
       </c>
+      <c r="F41">
+        <v>2801</v>
+      </c>
       <c r="G41">
-        <v>2801</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H41">
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K41">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O41">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="P41">
-        <v>7</v>
-      </c>
-      <c r="Q41">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -3595,50 +3342,47 @@
       <c r="C42" t="s">
         <v>97</v>
       </c>
-      <c r="D42">
-        <v>2017</v>
+      <c r="D42" t="s">
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
         <v>14</v>
       </c>
+      <c r="F42">
+        <v>2629</v>
+      </c>
       <c r="G42">
-        <v>2629</v>
+        <v>8.4</v>
       </c>
       <c r="H42">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="K42">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O42">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="P42">
-        <v>71</v>
-      </c>
-      <c r="Q42">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -3649,49 +3393,46 @@
         <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>326</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
         <v>14</v>
       </c>
+      <c r="F43">
+        <v>2819</v>
+      </c>
       <c r="G43">
-        <v>2819</v>
+        <v>12.4</v>
       </c>
       <c r="H43">
-        <v>12.4</v>
+        <v>440</v>
       </c>
       <c r="I43">
-        <v>440</v>
+        <v>20</v>
       </c>
       <c r="J43">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K43">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O43">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P43">
-        <v>244</v>
-      </c>
-      <c r="Q43">
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -3701,50 +3442,47 @@
       <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="D44">
-        <v>2016</v>
+      <c r="D44" t="s">
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" t="s">
         <v>41</v>
       </c>
+      <c r="F44">
+        <v>2478</v>
+      </c>
       <c r="G44">
-        <v>2478</v>
+        <v>6.4</v>
       </c>
       <c r="H44">
-        <v>6.4</v>
+        <v>570</v>
       </c>
       <c r="I44">
-        <v>570</v>
+        <v>25</v>
       </c>
       <c r="J44">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="K44">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M44">
+        <v>15</v>
+      </c>
+      <c r="N44">
+        <v>240</v>
+      </c>
+      <c r="O44">
         <v>13</v>
       </c>
-      <c r="N44">
-        <v>15</v>
-      </c>
-      <c r="O44">
-        <v>240</v>
-      </c>
       <c r="P44">
-        <v>13</v>
-      </c>
-      <c r="Q44">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -3755,49 +3493,46 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>327</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" t="s">
         <v>62</v>
       </c>
+      <c r="F45">
+        <v>2370</v>
+      </c>
       <c r="G45">
-        <v>2370</v>
+        <v>5.4</v>
       </c>
       <c r="H45">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M45">
         <v>15</v>
       </c>
       <c r="N45">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O45">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="P45">
-        <v>309</v>
-      </c>
-      <c r="Q45">
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -3807,50 +3542,47 @@
       <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="D46">
-        <v>2017</v>
+      <c r="D46" t="s">
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
         <v>14</v>
       </c>
+      <c r="F46">
+        <v>2819</v>
+      </c>
       <c r="G46">
-        <v>2819</v>
+        <v>8.4</v>
       </c>
       <c r="H46">
-        <v>8.4</v>
+        <v>430</v>
       </c>
       <c r="I46">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="J46">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="K46">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O46">
-        <v>260</v>
+        <v>601</v>
       </c>
       <c r="P46">
-        <v>601</v>
-      </c>
-      <c r="Q46">
         <v>634</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -3861,49 +3593,46 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47">
+        <v>2528</v>
+      </c>
+      <c r="G47">
+        <v>7.8</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>126</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
         <v>18</v>
       </c>
-      <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47">
-        <v>2528</v>
-      </c>
-      <c r="H47">
-        <v>7.8</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>126</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
       <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>260</v>
+      </c>
+      <c r="O47">
         <v>18</v>
       </c>
-      <c r="N47">
-        <v>15</v>
-      </c>
-      <c r="O47">
-        <v>260</v>
-      </c>
       <c r="P47">
-        <v>18</v>
-      </c>
-      <c r="Q47">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -3913,50 +3642,47 @@
       <c r="C48" t="s">
         <v>138</v>
       </c>
-      <c r="D48">
-        <v>2018</v>
+      <c r="D48" t="s">
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
         <v>9</v>
       </c>
+      <c r="F48">
+        <v>2578</v>
+      </c>
       <c r="G48">
-        <v>2578</v>
+        <v>7.8</v>
       </c>
       <c r="H48">
-        <v>7.8</v>
+        <v>460</v>
       </c>
       <c r="I48">
-        <v>460</v>
+        <v>16</v>
       </c>
       <c r="J48">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="K48">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N48">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O48">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="P48">
-        <v>117</v>
-      </c>
-      <c r="Q48">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3967,49 +3693,46 @@
         <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" t="s">
         <v>62</v>
       </c>
+      <c r="F49">
+        <v>2510</v>
+      </c>
       <c r="G49">
-        <v>2510</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>390</v>
       </c>
       <c r="I49">
-        <v>390</v>
+        <v>15</v>
       </c>
       <c r="J49">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="K49">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N49">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O49">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="P49">
-        <v>14</v>
-      </c>
-      <c r="Q49">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -4019,50 +3742,47 @@
       <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="1">
-        <v>43202</v>
+      <c r="D50" t="s">
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
         <v>9</v>
       </c>
+      <c r="F50">
+        <v>2594</v>
+      </c>
       <c r="G50">
-        <v>2594</v>
+        <v>7</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K50">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N50">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O50">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="P50">
-        <v>14</v>
-      </c>
-      <c r="Q50">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -4073,49 +3793,46 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" t="s">
         <v>41</v>
       </c>
+      <c r="F51">
+        <v>2701</v>
+      </c>
       <c r="G51">
-        <v>2701</v>
+        <v>7.2</v>
       </c>
       <c r="H51">
-        <v>7.2</v>
+        <v>490</v>
       </c>
       <c r="I51">
-        <v>490</v>
+        <v>18</v>
       </c>
       <c r="J51">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="K51">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N51">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O51">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P51">
-        <v>243</v>
-      </c>
-      <c r="Q51">
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -4125,50 +3842,47 @@
       <c r="C52" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="1">
-        <v>42833</v>
+      <c r="D52" t="s">
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" t="s">
         <v>41</v>
       </c>
+      <c r="F52">
+        <v>2501</v>
+      </c>
       <c r="G52">
-        <v>2501</v>
+        <v>7.2</v>
       </c>
       <c r="H52">
-        <v>7.2</v>
+        <v>490</v>
       </c>
       <c r="I52">
-        <v>490</v>
+        <v>18</v>
       </c>
       <c r="J52">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="K52">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N52">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O52">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="P52">
-        <v>211</v>
-      </c>
-      <c r="Q52">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -4178,50 +3892,47 @@
       <c r="C53" t="s">
         <v>151</v>
       </c>
-      <c r="D53">
-        <v>2016</v>
+      <c r="D53" t="s">
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
         <v>9</v>
       </c>
+      <c r="F53">
+        <v>2429</v>
+      </c>
       <c r="G53">
-        <v>2429</v>
+        <v>7.4</v>
       </c>
       <c r="H53">
-        <v>7.4</v>
+        <v>100</v>
       </c>
       <c r="I53">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="K53">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N53">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O53">
-        <v>260</v>
+        <v>607</v>
       </c>
       <c r="P53">
-        <v>607</v>
-      </c>
-      <c r="Q53">
         <v>564</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -4231,50 +3942,47 @@
       <c r="C54" t="s">
         <v>17</v>
       </c>
-      <c r="D54">
-        <v>2017</v>
+      <c r="D54" t="s">
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
         <v>9</v>
       </c>
+      <c r="F54">
+        <v>2599</v>
+      </c>
       <c r="G54">
-        <v>2599</v>
+        <v>7</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>440</v>
       </c>
       <c r="I54">
-        <v>440</v>
+        <v>16</v>
       </c>
       <c r="J54">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="K54">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N54">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O54">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="P54">
-        <v>173</v>
-      </c>
-      <c r="Q54">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -4284,50 +3992,47 @@
       <c r="C55" t="s">
         <v>156</v>
       </c>
-      <c r="D55">
-        <v>2017</v>
+      <c r="D55" t="s">
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s">
         <v>19</v>
       </c>
+      <c r="F55">
+        <v>2789</v>
+      </c>
       <c r="G55">
-        <v>2789</v>
+        <v>8.4</v>
       </c>
       <c r="H55">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="K55">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N55">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O55">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="P55">
-        <v>192</v>
-      </c>
-      <c r="Q55">
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -4337,50 +4042,47 @@
       <c r="C56" t="s">
         <v>17</v>
       </c>
-      <c r="D56">
-        <v>2017</v>
+      <c r="D56" t="s">
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
         <v>14</v>
       </c>
+      <c r="F56">
+        <v>2909</v>
+      </c>
       <c r="G56">
-        <v>2909</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="H56">
-        <v>18.399999999999999</v>
+        <v>430</v>
       </c>
       <c r="I56">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="J56">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="K56">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O56">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="P56">
-        <v>232</v>
-      </c>
-      <c r="Q56">
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>159</v>
       </c>
@@ -4391,49 +4093,46 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>331</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" t="s">
         <v>62</v>
       </c>
+      <c r="F57">
+        <v>2540</v>
+      </c>
       <c r="G57">
-        <v>2540</v>
+        <v>7</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="K57">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O57">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="P57">
-        <v>114</v>
-      </c>
-      <c r="Q57">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -4443,50 +4142,47 @@
       <c r="C58" t="s">
         <v>17</v>
       </c>
-      <c r="D58">
-        <v>2018</v>
+      <c r="D58" t="s">
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" t="s">
         <v>19</v>
       </c>
+      <c r="F58">
+        <v>2658</v>
+      </c>
       <c r="G58">
-        <v>2658</v>
+        <v>7.8</v>
       </c>
       <c r="H58">
-        <v>7.8</v>
+        <v>430</v>
       </c>
       <c r="I58">
-        <v>430</v>
+        <v>16</v>
       </c>
       <c r="J58">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="K58">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N58">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O58">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="P58">
-        <v>470</v>
-      </c>
-      <c r="Q58">
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -4496,50 +4192,47 @@
       <c r="C59" t="s">
         <v>17</v>
       </c>
-      <c r="D59">
-        <v>2017</v>
+      <c r="D59" t="s">
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
         <v>14</v>
       </c>
+      <c r="F59">
+        <v>2809</v>
+      </c>
       <c r="G59">
-        <v>2809</v>
+        <v>8.4</v>
       </c>
       <c r="H59">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K59">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N59">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O59">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="P59">
-        <v>68</v>
-      </c>
-      <c r="Q59">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -4550,49 +4243,46 @@
         <v>167</v>
       </c>
       <c r="D60" t="s">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" t="s">
         <v>19</v>
       </c>
+      <c r="F60">
+        <v>2878</v>
+      </c>
       <c r="G60">
-        <v>2878</v>
+        <v>7.8</v>
       </c>
       <c r="H60">
-        <v>7.8</v>
+        <v>420</v>
       </c>
       <c r="I60">
-        <v>420</v>
+        <v>16</v>
       </c>
       <c r="J60">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="K60">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N60">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="O60">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="P60">
-        <v>281</v>
-      </c>
-      <c r="Q60">
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -4602,50 +4292,47 @@
       <c r="C61" t="s">
         <v>97</v>
       </c>
-      <c r="D61">
-        <v>2018</v>
+      <c r="D61" t="s">
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" t="s">
         <v>41</v>
       </c>
+      <c r="F61">
+        <v>2491</v>
+      </c>
       <c r="G61">
-        <v>2491</v>
+        <v>7.2</v>
       </c>
       <c r="H61">
-        <v>7.2</v>
+        <v>495</v>
       </c>
       <c r="I61">
-        <v>495</v>
+        <v>18</v>
       </c>
       <c r="J61">
+        <v>105</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>18</v>
       </c>
-      <c r="K61">
-        <v>105</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
       <c r="M61">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N61">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O61">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="P61">
-        <v>198</v>
-      </c>
-      <c r="Q61">
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -4655,50 +4342,47 @@
       <c r="C62" t="s">
         <v>172</v>
       </c>
-      <c r="D62">
-        <v>2016</v>
+      <c r="D62" t="s">
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" t="s">
         <v>41</v>
       </c>
+      <c r="F62">
+        <v>2556</v>
+      </c>
       <c r="G62">
-        <v>2556</v>
+        <v>7</v>
       </c>
       <c r="H62">
-        <v>7</v>
+        <v>519</v>
       </c>
       <c r="I62">
-        <v>519</v>
+        <v>21</v>
       </c>
       <c r="J62">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="K62">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N62">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="O62">
-        <v>240</v>
+        <v>714</v>
       </c>
       <c r="P62">
-        <v>714</v>
-      </c>
-      <c r="Q62">
         <v>739</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -4708,50 +4392,47 @@
       <c r="C63" t="s">
         <v>97</v>
       </c>
-      <c r="D63">
-        <v>2018</v>
+      <c r="D63" t="s">
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" t="s">
         <v>19</v>
       </c>
+      <c r="F63">
+        <v>2609</v>
+      </c>
       <c r="G63">
-        <v>2609</v>
+        <v>10.4</v>
       </c>
       <c r="H63">
-        <v>10.4</v>
+        <v>400</v>
       </c>
       <c r="I63">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="J63">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="K63">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N63">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="O63">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="P63">
-        <v>278</v>
-      </c>
-      <c r="Q63">
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -4761,50 +4442,47 @@
       <c r="C64" t="s">
         <v>17</v>
       </c>
-      <c r="D64">
-        <v>2016</v>
+      <c r="D64" t="s">
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
         <v>9</v>
       </c>
+      <c r="F64">
+        <v>2633</v>
+      </c>
       <c r="G64">
-        <v>2633</v>
+        <v>7.8</v>
       </c>
       <c r="H64">
-        <v>7.8</v>
+        <v>431</v>
       </c>
       <c r="I64">
-        <v>431</v>
+        <v>16</v>
       </c>
       <c r="J64">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="K64">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N64">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O64">
-        <v>260</v>
+        <v>403</v>
       </c>
       <c r="P64">
-        <v>403</v>
-      </c>
-      <c r="Q64">
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>177</v>
       </c>
@@ -4814,50 +4492,47 @@
       <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="1">
-        <v>42862</v>
+      <c r="D65" t="s">
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" t="s">
         <v>62</v>
       </c>
+      <c r="F65">
+        <v>2578</v>
+      </c>
       <c r="G65">
-        <v>2578</v>
+        <v>8</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>440</v>
       </c>
       <c r="I65">
-        <v>440</v>
+        <v>15</v>
       </c>
       <c r="J65">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="K65">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N65">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O65">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="P65">
-        <v>350</v>
-      </c>
-      <c r="Q65">
         <v>430</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -4867,50 +4542,47 @@
       <c r="C66" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="1">
-        <v>43990</v>
+      <c r="D66" t="s">
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" t="s">
         <v>19</v>
       </c>
+      <c r="F66">
+        <v>2778</v>
+      </c>
       <c r="G66">
-        <v>2778</v>
+        <v>7</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K66">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O66">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="P66">
-        <v>174</v>
-      </c>
-      <c r="Q66">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>182</v>
       </c>
@@ -4920,50 +4592,47 @@
       <c r="C67" t="s">
         <v>97</v>
       </c>
-      <c r="D67">
-        <v>2019</v>
+      <c r="D67" t="s">
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" t="s">
         <v>14</v>
       </c>
+      <c r="F67">
+        <v>2770</v>
+      </c>
       <c r="G67">
-        <v>2770</v>
+        <v>9.4</v>
       </c>
       <c r="H67">
-        <v>9.4</v>
+        <v>460</v>
       </c>
       <c r="I67">
-        <v>460</v>
+        <v>15</v>
       </c>
       <c r="J67">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="K67">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N67">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O67">
-        <v>255</v>
+        <v>689</v>
       </c>
       <c r="P67">
-        <v>689</v>
-      </c>
-      <c r="Q67">
         <v>661</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -4974,49 +4643,46 @@
         <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" t="s">
         <v>62</v>
       </c>
+      <c r="F68">
+        <v>2450</v>
+      </c>
       <c r="G68">
-        <v>2450</v>
+        <v>8</v>
       </c>
       <c r="H68">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I68">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="K68">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N68">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O68">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="P68">
-        <v>233</v>
-      </c>
-      <c r="Q68">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>186</v>
       </c>
@@ -5026,50 +4692,47 @@
       <c r="C69" t="s">
         <v>188</v>
       </c>
-      <c r="D69">
-        <v>2017</v>
+      <c r="D69" t="s">
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
         <v>9</v>
       </c>
+      <c r="F69">
+        <v>2549</v>
+      </c>
       <c r="G69">
-        <v>2549</v>
+        <v>7</v>
       </c>
       <c r="H69">
-        <v>7</v>
+        <v>450</v>
       </c>
       <c r="I69">
-        <v>450</v>
+        <v>16</v>
       </c>
       <c r="J69">
+        <v>124</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
         <v>16</v>
       </c>
-      <c r="K69">
-        <v>124</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
       <c r="M69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O69">
-        <v>260</v>
+        <v>603</v>
       </c>
       <c r="P69">
-        <v>603</v>
-      </c>
-      <c r="Q69">
         <v>568</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -5079,50 +4742,47 @@
       <c r="C70" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="1">
-        <v>42878</v>
+      <c r="D70" t="s">
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" t="s">
         <v>19</v>
       </c>
+      <c r="F70">
+        <v>2628</v>
+      </c>
       <c r="G70">
-        <v>2628</v>
+        <v>7</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="K70">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N70">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O70">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="P70">
-        <v>239</v>
-      </c>
-      <c r="Q70">
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>191</v>
       </c>
@@ -5132,50 +4792,47 @@
       <c r="C71" t="s">
         <v>193</v>
       </c>
-      <c r="D71">
-        <v>2016</v>
+      <c r="D71" t="s">
+        <v>61</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F71" t="s">
         <v>62</v>
       </c>
+      <c r="F71">
+        <v>2500</v>
+      </c>
       <c r="G71">
-        <v>2500</v>
+        <v>5.4</v>
       </c>
       <c r="H71">
-        <v>5.4</v>
+        <v>424</v>
       </c>
       <c r="I71">
-        <v>424</v>
+        <v>14</v>
       </c>
       <c r="J71">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="K71">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M71">
         <v>15</v>
       </c>
       <c r="N71">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O71">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="P71">
-        <v>8</v>
-      </c>
-      <c r="Q71">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -5185,50 +4842,47 @@
       <c r="C72" t="s">
         <v>17</v>
       </c>
-      <c r="D72">
-        <v>2018</v>
+      <c r="D72" t="s">
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" t="s">
         <v>19</v>
       </c>
+      <c r="F72">
+        <v>2738</v>
+      </c>
       <c r="G72">
-        <v>2738</v>
+        <v>7</v>
       </c>
       <c r="H72">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K72">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M72">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N72">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O72">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="P72">
-        <v>89</v>
-      </c>
-      <c r="Q72">
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>196</v>
       </c>
@@ -5239,49 +4893,46 @@
         <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>334</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
-      </c>
-      <c r="F73" t="s">
         <v>62</v>
       </c>
+      <c r="F73">
+        <v>2490</v>
+      </c>
       <c r="G73">
-        <v>2490</v>
+        <v>7.2</v>
       </c>
       <c r="H73">
-        <v>7.2</v>
+        <v>100</v>
       </c>
       <c r="I73">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="J73">
+        <v>131</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>14</v>
+      </c>
+      <c r="M73">
+        <v>15</v>
+      </c>
+      <c r="N73">
         <v>240</v>
       </c>
-      <c r="K73">
-        <v>131</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>14</v>
-      </c>
-      <c r="N73">
-        <v>15</v>
-      </c>
       <c r="O73">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="P73">
-        <v>19</v>
-      </c>
-      <c r="Q73">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -5291,50 +4942,47 @@
       <c r="C74" t="s">
         <v>200</v>
       </c>
-      <c r="D74">
-        <v>2019</v>
+      <c r="D74" t="s">
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
         <v>9</v>
       </c>
+      <c r="F74">
+        <v>2578</v>
+      </c>
       <c r="G74">
-        <v>2578</v>
+        <v>7.8</v>
       </c>
       <c r="H74">
-        <v>7.8</v>
+        <v>100</v>
       </c>
       <c r="I74">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J74">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="K74">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N74">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O74">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="P74">
-        <v>700</v>
-      </c>
-      <c r="Q74">
         <v>684</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>201</v>
       </c>
@@ -5344,50 +4992,47 @@
       <c r="C75" t="s">
         <v>97</v>
       </c>
-      <c r="D75">
-        <v>2016</v>
+      <c r="D75" t="s">
+        <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" t="s">
         <v>14</v>
       </c>
+      <c r="F75">
+        <v>2579</v>
+      </c>
       <c r="G75">
-        <v>2579</v>
+        <v>9.6</v>
       </c>
       <c r="H75">
-        <v>9.6</v>
+        <v>480</v>
       </c>
       <c r="I75">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="J75">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="K75">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M75">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N75">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O75">
-        <v>260</v>
+        <v>508</v>
       </c>
       <c r="P75">
-        <v>508</v>
-      </c>
-      <c r="Q75">
         <v>436</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -5397,50 +5042,47 @@
       <c r="C76" t="s">
         <v>17</v>
       </c>
-      <c r="D76">
-        <v>2018</v>
+      <c r="D76" t="s">
+        <v>23</v>
       </c>
       <c r="E76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76">
+        <v>2621</v>
+      </c>
+      <c r="G76">
+        <v>6.8</v>
+      </c>
+      <c r="H76">
+        <v>540</v>
+      </c>
+      <c r="I76">
         <v>23</v>
       </c>
-      <c r="F76" t="s">
-        <v>41</v>
-      </c>
-      <c r="G76">
-        <v>2621</v>
-      </c>
-      <c r="H76">
-        <v>6.8</v>
-      </c>
-      <c r="I76">
-        <v>540</v>
-      </c>
       <c r="J76">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="K76">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M76">
         <v>15</v>
       </c>
       <c r="N76">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O76">
-        <v>240</v>
+        <v>724</v>
       </c>
       <c r="P76">
-        <v>724</v>
-      </c>
-      <c r="Q76">
         <v>698</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -5451,49 +5093,46 @@
         <v>207</v>
       </c>
       <c r="D77" t="s">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" t="s">
         <v>41</v>
       </c>
+      <c r="F77">
+        <v>2601</v>
+      </c>
       <c r="G77">
-        <v>2601</v>
+        <v>7.2</v>
       </c>
       <c r="H77">
-        <v>7.2</v>
+        <v>520</v>
       </c>
       <c r="I77">
-        <v>520</v>
+        <v>21</v>
       </c>
       <c r="J77">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="K77">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N77">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O77">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="P77">
-        <v>165</v>
-      </c>
-      <c r="Q77">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -5504,49 +5143,46 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>336</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F78" t="s">
         <v>41</v>
       </c>
+      <c r="F78">
+        <v>2501</v>
+      </c>
       <c r="G78">
-        <v>2501</v>
+        <v>6.8</v>
       </c>
       <c r="H78">
-        <v>6.8</v>
+        <v>500</v>
       </c>
       <c r="I78">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="J78">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="K78">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N78">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O78">
-        <v>245</v>
+        <v>655</v>
       </c>
       <c r="P78">
-        <v>655</v>
-      </c>
-      <c r="Q78">
         <v>628</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>210</v>
       </c>
@@ -5556,50 +5192,47 @@
       <c r="C79" t="s">
         <v>212</v>
       </c>
-      <c r="D79" s="1">
-        <v>44177</v>
+      <c r="D79" t="s">
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" t="s">
         <v>14</v>
       </c>
+      <c r="F79">
+        <v>2561</v>
+      </c>
       <c r="G79">
-        <v>2561</v>
+        <v>6.8</v>
       </c>
       <c r="H79">
-        <v>6.8</v>
+        <v>430</v>
       </c>
       <c r="I79">
-        <v>430</v>
+        <v>16</v>
       </c>
       <c r="J79">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="K79">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M79">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N79">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="O79">
-        <v>252</v>
+        <v>756</v>
       </c>
       <c r="P79">
-        <v>756</v>
-      </c>
-      <c r="Q79">
         <v>736</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -5609,50 +5242,47 @@
       <c r="C80" t="s">
         <v>17</v>
       </c>
-      <c r="D80">
-        <v>2018</v>
+      <c r="D80" t="s">
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" t="s">
         <v>19</v>
       </c>
+      <c r="F80">
+        <v>2738</v>
+      </c>
       <c r="G80">
-        <v>2738</v>
+        <v>7</v>
       </c>
       <c r="H80">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="K80">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N80">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O80">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="P80">
-        <v>95</v>
-      </c>
-      <c r="Q80">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>215</v>
       </c>
@@ -5663,49 +5293,46 @@
         <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>337</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" t="s">
         <v>19</v>
       </c>
+      <c r="F81">
+        <v>2043</v>
+      </c>
       <c r="G81">
-        <v>2043</v>
+        <v>3.8</v>
       </c>
       <c r="H81">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="K81">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M81">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N81">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O81">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="P81">
-        <v>321</v>
-      </c>
-      <c r="Q81">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>218</v>
       </c>
@@ -5716,49 +5343,46 @@
         <v>220</v>
       </c>
       <c r="D82" t="s">
-        <v>338</v>
+        <v>61</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" t="s">
         <v>62</v>
       </c>
+      <c r="F82">
+        <v>2460</v>
+      </c>
       <c r="G82">
-        <v>2460</v>
+        <v>6.6</v>
       </c>
       <c r="H82">
-        <v>6.6</v>
+        <v>448</v>
       </c>
       <c r="I82">
-        <v>448</v>
+        <v>15</v>
       </c>
       <c r="J82">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="K82">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N82">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="O82">
-        <v>248</v>
+        <v>67</v>
       </c>
       <c r="P82">
-        <v>67</v>
-      </c>
-      <c r="Q82">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>221</v>
       </c>
@@ -5768,50 +5392,47 @@
       <c r="C83" t="s">
         <v>97</v>
       </c>
-      <c r="D83">
-        <v>2016</v>
+      <c r="D83" t="s">
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" t="s">
         <v>14</v>
       </c>
+      <c r="F83">
+        <v>2859</v>
+      </c>
       <c r="G83">
-        <v>2859</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H83">
-        <v>8.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="K83">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M83">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N83">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="O83">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="P83">
         <v>96</v>
       </c>
-      <c r="Q83">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>223</v>
       </c>
@@ -5821,50 +5442,47 @@
       <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D84">
-        <v>2018</v>
+      <c r="D84" t="s">
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" t="s">
         <v>19</v>
       </c>
+      <c r="F84">
+        <v>2698</v>
+      </c>
       <c r="G84">
-        <v>2698</v>
+        <v>7.4</v>
       </c>
       <c r="H84">
-        <v>7.4</v>
+        <v>380</v>
       </c>
       <c r="I84">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="J84">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="K84">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M84">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N84">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O84">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="P84">
-        <v>20</v>
-      </c>
-      <c r="Q84">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>225</v>
       </c>
@@ -5874,50 +5492,47 @@
       <c r="C85" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="1">
-        <v>42635</v>
+      <c r="D85" t="s">
+        <v>61</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" t="s">
         <v>62</v>
       </c>
+      <c r="F85">
+        <v>2524</v>
+      </c>
       <c r="G85">
-        <v>2524</v>
+        <v>6</v>
       </c>
       <c r="H85">
-        <v>6</v>
+        <v>445</v>
       </c>
       <c r="I85">
-        <v>445</v>
+        <v>15</v>
       </c>
       <c r="J85">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="K85">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N85">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O85">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="P85">
-        <v>18</v>
-      </c>
-      <c r="Q85">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>228</v>
       </c>
@@ -5927,50 +5542,47 @@
       <c r="C86" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="1">
-        <v>42814</v>
+      <c r="D86" t="s">
+        <v>61</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86" t="s">
         <v>62</v>
       </c>
+      <c r="F86">
+        <v>2455</v>
+      </c>
       <c r="G86">
-        <v>2455</v>
+        <v>6.4</v>
       </c>
       <c r="H86">
-        <v>6.4</v>
+        <v>420</v>
       </c>
       <c r="I86">
-        <v>420</v>
+        <v>15</v>
       </c>
       <c r="J86">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="K86">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N86">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O86">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="P86">
-        <v>42</v>
-      </c>
-      <c r="Q86">
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>230</v>
       </c>
@@ -5980,50 +5592,47 @@
       <c r="C87" t="s">
         <v>232</v>
       </c>
-      <c r="D87">
-        <v>2016</v>
+      <c r="D87" t="s">
+        <v>23</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" t="s">
         <v>41</v>
       </c>
+      <c r="F87">
+        <v>2501</v>
+      </c>
       <c r="G87">
-        <v>2501</v>
+        <v>6.8</v>
       </c>
       <c r="H87">
-        <v>6.8</v>
+        <v>510</v>
       </c>
       <c r="I87">
-        <v>510</v>
+        <v>18</v>
       </c>
       <c r="J87">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="K87">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M87">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N87">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O87">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="P87">
-        <v>26</v>
-      </c>
-      <c r="Q87">
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -6034,49 +5643,46 @@
         <v>235</v>
       </c>
       <c r="D88" t="s">
-        <v>339</v>
+        <v>61</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" t="s">
         <v>62</v>
       </c>
+      <c r="F88">
+        <v>2530</v>
+      </c>
       <c r="G88">
-        <v>2530</v>
+        <v>6</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>443</v>
       </c>
       <c r="I88">
-        <v>443</v>
+        <v>15</v>
       </c>
       <c r="J88">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="K88">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N88">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O88">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="P88">
-        <v>167</v>
-      </c>
-      <c r="Q88">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>236</v>
       </c>
@@ -6087,49 +5693,46 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>340</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
         <v>9</v>
       </c>
+      <c r="F89">
+        <v>2639</v>
+      </c>
       <c r="G89">
-        <v>2639</v>
+        <v>7</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>486</v>
       </c>
       <c r="I89">
-        <v>486</v>
+        <v>16</v>
       </c>
       <c r="J89">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="K89">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N89">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O89">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="P89">
         <v>173</v>
       </c>
-      <c r="Q89">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>238</v>
       </c>
@@ -6140,49 +5743,46 @@
         <v>240</v>
       </c>
       <c r="D90" t="s">
-        <v>341</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90">
+        <v>2491</v>
+      </c>
+      <c r="G90">
+        <v>6.8</v>
+      </c>
+      <c r="H90">
+        <v>495</v>
+      </c>
+      <c r="I90">
         <v>23</v>
       </c>
-      <c r="F90" t="s">
-        <v>41</v>
-      </c>
-      <c r="G90">
-        <v>2491</v>
-      </c>
-      <c r="H90">
-        <v>6.8</v>
-      </c>
-      <c r="I90">
-        <v>495</v>
-      </c>
       <c r="J90">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="K90">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M90">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N90">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O90">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="P90">
-        <v>2</v>
-      </c>
-      <c r="Q90">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>241</v>
       </c>
@@ -6192,50 +5792,47 @@
       <c r="C91" t="s">
         <v>17</v>
       </c>
-      <c r="D91">
-        <v>2017</v>
+      <c r="D91" t="s">
+        <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" t="s">
         <v>41</v>
       </c>
+      <c r="F91">
+        <v>2421</v>
+      </c>
       <c r="G91">
-        <v>2421</v>
+        <v>6.8</v>
       </c>
       <c r="H91">
-        <v>6.8</v>
+        <v>490</v>
       </c>
       <c r="I91">
-        <v>490</v>
+        <v>18</v>
       </c>
       <c r="J91">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="K91">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N91">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O91">
-        <v>240</v>
+        <v>668</v>
       </c>
       <c r="P91">
-        <v>668</v>
-      </c>
-      <c r="Q91">
         <v>673</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>243</v>
       </c>
@@ -6245,50 +5842,47 @@
       <c r="C92" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="1">
-        <v>44505</v>
+      <c r="D92" t="s">
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" t="s">
         <v>19</v>
       </c>
+      <c r="F92">
+        <v>2828</v>
+      </c>
       <c r="G92">
-        <v>2828</v>
+        <v>10.8</v>
       </c>
       <c r="H92">
-        <v>10.8</v>
+        <v>430</v>
       </c>
       <c r="I92">
-        <v>430</v>
+        <v>21</v>
       </c>
       <c r="J92">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="K92">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M92">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N92">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="O92">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="P92">
-        <v>309</v>
-      </c>
-      <c r="Q92">
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>246</v>
       </c>
@@ -6299,49 +5893,46 @@
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>342</v>
+        <v>61</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
-      </c>
-      <c r="F93" t="s">
         <v>62</v>
       </c>
+      <c r="F93">
+        <v>2425</v>
+      </c>
       <c r="G93">
-        <v>2425</v>
+        <v>6</v>
       </c>
       <c r="H93">
-        <v>6</v>
+        <v>445</v>
       </c>
       <c r="I93">
-        <v>445</v>
+        <v>15</v>
       </c>
       <c r="J93">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="K93">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O93">
-        <v>250</v>
+        <v>669</v>
       </c>
       <c r="P93">
-        <v>669</v>
-      </c>
-      <c r="Q93">
         <v>654</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -6352,49 +5943,46 @@
         <v>250</v>
       </c>
       <c r="D94" t="s">
-        <v>343</v>
+        <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" t="s">
         <v>19</v>
       </c>
+      <c r="F94">
+        <v>2798</v>
+      </c>
       <c r="G94">
-        <v>2798</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H94">
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="K94">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M94">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N94">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O94">
-        <v>260</v>
+        <v>1064</v>
       </c>
       <c r="P94">
-        <v>1064</v>
-      </c>
-      <c r="Q94">
         <v>964</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>251</v>
       </c>
@@ -6404,50 +5992,47 @@
       <c r="C95" t="s">
         <v>253</v>
       </c>
-      <c r="D95">
-        <v>2016</v>
+      <c r="D95" t="s">
+        <v>32</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
-      </c>
-      <c r="F95" t="s">
         <v>14</v>
       </c>
+      <c r="F95">
+        <v>2441</v>
+      </c>
       <c r="G95">
-        <v>2441</v>
+        <v>7.2</v>
       </c>
       <c r="H95">
-        <v>7.2</v>
+        <v>545</v>
       </c>
       <c r="I95">
-        <v>545</v>
+        <v>23</v>
       </c>
       <c r="J95">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="K95">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M95">
         <v>15</v>
       </c>
       <c r="N95">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O95">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c r="P95">
-        <v>375</v>
-      </c>
-      <c r="Q95">
         <v>418</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>254</v>
       </c>
@@ -6458,49 +6043,46 @@
         <v>97</v>
       </c>
       <c r="D96" t="s">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" t="s">
         <v>9</v>
       </c>
+      <c r="F96">
+        <v>2730</v>
+      </c>
       <c r="G96">
-        <v>2730</v>
+        <v>7.2</v>
       </c>
       <c r="H96">
-        <v>7.2</v>
+        <v>450</v>
       </c>
       <c r="I96">
-        <v>450</v>
+        <v>15</v>
       </c>
       <c r="J96">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="K96">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M96">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N96">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O96">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="P96">
-        <v>361</v>
-      </c>
-      <c r="Q96">
         <v>411</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -6510,50 +6092,47 @@
       <c r="C97" t="s">
         <v>97</v>
       </c>
-      <c r="D97">
-        <v>2017</v>
+      <c r="D97" t="s">
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" t="s">
         <v>19</v>
       </c>
+      <c r="F97">
+        <v>2646</v>
+      </c>
       <c r="G97">
-        <v>2646</v>
+        <v>7.8</v>
       </c>
       <c r="H97">
-        <v>7.8</v>
+        <v>453</v>
       </c>
       <c r="I97">
-        <v>453</v>
+        <v>31</v>
       </c>
       <c r="J97">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="K97">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M97">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N97">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O97">
-        <v>260</v>
+        <v>547</v>
       </c>
       <c r="P97">
-        <v>547</v>
-      </c>
-      <c r="Q97">
         <v>632</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -6564,49 +6143,46 @@
         <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>345</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
         <v>9</v>
       </c>
+      <c r="F98">
+        <v>2401</v>
+      </c>
       <c r="G98">
-        <v>2401</v>
+        <v>6.8</v>
       </c>
       <c r="H98">
-        <v>6.8</v>
+        <v>490</v>
       </c>
       <c r="I98">
-        <v>490</v>
+        <v>18</v>
       </c>
       <c r="J98">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="K98">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M98">
         <v>15</v>
       </c>
       <c r="N98">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O98">
-        <v>240</v>
+        <v>493</v>
       </c>
       <c r="P98">
-        <v>493</v>
-      </c>
-      <c r="Q98">
         <v>531</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>260</v>
       </c>
@@ -6617,49 +6193,46 @@
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>346</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" t="s">
         <v>19</v>
       </c>
+      <c r="F99">
+        <v>2868</v>
+      </c>
       <c r="G99">
-        <v>2868</v>
+        <v>7.8</v>
       </c>
       <c r="H99">
-        <v>7.8</v>
+        <v>430</v>
       </c>
       <c r="I99">
-        <v>430</v>
+        <v>16</v>
       </c>
       <c r="J99">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="K99">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M99">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N99">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O99">
-        <v>255</v>
+        <v>88</v>
       </c>
       <c r="P99">
-        <v>88</v>
-      </c>
-      <c r="Q99">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>262</v>
       </c>
@@ -6669,50 +6242,47 @@
       <c r="C100" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="1">
-        <v>43561</v>
+      <c r="D100" t="s">
+        <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" t="s">
         <v>19</v>
       </c>
+      <c r="F100">
+        <v>2728</v>
+      </c>
       <c r="G100">
-        <v>2728</v>
+        <v>10.8</v>
       </c>
       <c r="H100">
-        <v>10.8</v>
+        <v>430</v>
       </c>
       <c r="I100">
-        <v>430</v>
+        <v>21</v>
       </c>
       <c r="J100">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="K100">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M100">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N100">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O100">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="P100">
-        <v>103</v>
-      </c>
-      <c r="Q100">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>264</v>
       </c>
@@ -6722,50 +6292,47 @@
       <c r="C101" t="s">
         <v>17</v>
       </c>
-      <c r="D101">
-        <v>2018</v>
+      <c r="D101" t="s">
+        <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" t="s">
         <v>19</v>
       </c>
+      <c r="F101">
+        <v>2758</v>
+      </c>
       <c r="G101">
-        <v>2758</v>
+        <v>7.4</v>
       </c>
       <c r="H101">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K101">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M101">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N101">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O101">
-        <v>250</v>
+        <v>582</v>
       </c>
       <c r="P101">
-        <v>582</v>
-      </c>
-      <c r="Q101">
         <v>597</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>266</v>
       </c>
@@ -6775,50 +6342,47 @@
       <c r="C102" t="s">
         <v>17</v>
       </c>
-      <c r="D102">
-        <v>2018</v>
+      <c r="D102" t="s">
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
         <v>19</v>
       </c>
+      <c r="F102">
+        <v>2489</v>
+      </c>
       <c r="G102">
-        <v>2489</v>
+        <v>6.4</v>
       </c>
       <c r="H102">
-        <v>6.4</v>
+        <v>455</v>
       </c>
       <c r="I102">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="J102">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="K102">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M102">
         <v>15</v>
       </c>
       <c r="N102">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O102">
-        <v>260</v>
+        <v>596</v>
       </c>
       <c r="P102">
-        <v>596</v>
-      </c>
-      <c r="Q102">
         <v>578</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>268</v>
       </c>
@@ -6829,49 +6393,46 @@
         <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>347</v>
+        <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
-      </c>
-      <c r="F103" t="s">
         <v>41</v>
       </c>
+      <c r="F103">
+        <v>2401</v>
+      </c>
       <c r="G103">
-        <v>2401</v>
+        <v>6.8</v>
       </c>
       <c r="H103">
-        <v>6.8</v>
+        <v>490</v>
       </c>
       <c r="I103">
-        <v>490</v>
+        <v>21</v>
       </c>
       <c r="J103">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="K103">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M103">
         <v>15</v>
       </c>
       <c r="N103">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O103">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="P103">
-        <v>53</v>
-      </c>
-      <c r="Q103">
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>270</v>
       </c>
@@ -6881,50 +6442,47 @@
       <c r="C104" t="s">
         <v>272</v>
       </c>
-      <c r="D104">
-        <v>2021</v>
+      <c r="D104" t="s">
+        <v>23</v>
       </c>
       <c r="E104" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" t="s">
         <v>41</v>
       </c>
+      <c r="F104">
+        <v>2701</v>
+      </c>
       <c r="G104">
-        <v>2701</v>
+        <v>7.2</v>
       </c>
       <c r="H104">
-        <v>7.2</v>
+        <v>510</v>
       </c>
       <c r="I104">
-        <v>510</v>
+        <v>19</v>
       </c>
       <c r="J104">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="K104">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M104">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N104">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O104">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="P104">
-        <v>270</v>
-      </c>
-      <c r="Q104">
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>273</v>
       </c>
@@ -6934,50 +6492,47 @@
       <c r="C105" t="s">
         <v>17</v>
       </c>
-      <c r="D105">
-        <v>2018</v>
+      <c r="D105" t="s">
+        <v>23</v>
       </c>
       <c r="E105" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" t="s">
         <v>41</v>
       </c>
+      <c r="F105">
+        <v>2516</v>
+      </c>
       <c r="G105">
-        <v>2516</v>
+        <v>6.8</v>
       </c>
       <c r="H105">
-        <v>6.8</v>
+        <v>495</v>
       </c>
       <c r="I105">
-        <v>495</v>
+        <v>18</v>
       </c>
       <c r="J105">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="K105">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M105">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N105">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O105">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="P105">
-        <v>129</v>
-      </c>
-      <c r="Q105">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>275</v>
       </c>
@@ -6987,50 +6542,47 @@
       <c r="C106" t="s">
         <v>17</v>
       </c>
-      <c r="D106">
-        <v>2017</v>
+      <c r="D106" t="s">
+        <v>23</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F106" t="s">
         <v>41</v>
       </c>
+      <c r="F106">
+        <v>2481</v>
+      </c>
       <c r="G106">
-        <v>2481</v>
+        <v>7.6</v>
       </c>
       <c r="H106">
-        <v>7.6</v>
+        <v>490</v>
       </c>
       <c r="I106">
-        <v>490</v>
+        <v>20</v>
       </c>
       <c r="J106">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="K106">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M106">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N106">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O106">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="P106">
-        <v>5</v>
-      </c>
-      <c r="Q106">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>277</v>
       </c>
@@ -7041,49 +6593,46 @@
         <v>279</v>
       </c>
       <c r="D107" t="s">
-        <v>348</v>
+        <v>61</v>
       </c>
       <c r="E107" t="s">
-        <v>61</v>
-      </c>
-      <c r="F107" t="s">
         <v>62</v>
       </c>
+      <c r="F107">
+        <v>2540</v>
+      </c>
       <c r="G107">
-        <v>2540</v>
+        <v>5.4</v>
       </c>
       <c r="H107">
-        <v>5.4</v>
+        <v>424</v>
       </c>
       <c r="I107">
-        <v>424</v>
+        <v>14</v>
       </c>
       <c r="J107">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="K107">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M107">
         <v>15</v>
       </c>
       <c r="N107">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O107">
-        <v>245</v>
+        <v>413</v>
       </c>
       <c r="P107">
-        <v>413</v>
-      </c>
-      <c r="Q107">
         <v>312</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>280</v>
       </c>
@@ -7094,49 +6643,46 @@
         <v>282</v>
       </c>
       <c r="D108" t="s">
-        <v>349</v>
+        <v>23</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
-      </c>
-      <c r="F108" t="s">
         <v>41</v>
       </c>
+      <c r="F108">
+        <v>2616</v>
+      </c>
       <c r="G108">
-        <v>2616</v>
+        <v>6.8</v>
       </c>
       <c r="H108">
-        <v>6.8</v>
+        <v>670</v>
       </c>
       <c r="I108">
-        <v>670</v>
+        <v>26</v>
       </c>
       <c r="J108">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="K108">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M108">
         <v>15</v>
       </c>
       <c r="N108">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O108">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P108">
-        <v>252</v>
-      </c>
-      <c r="Q108">
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>283</v>
       </c>
@@ -7146,50 +6692,47 @@
       <c r="C109" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="1">
-        <v>43716</v>
+      <c r="D109" t="s">
+        <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" t="s">
         <v>19</v>
       </c>
+      <c r="F109">
+        <v>918</v>
+      </c>
       <c r="G109">
-        <v>918</v>
+        <v>7.8</v>
       </c>
       <c r="H109">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="K109">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M109">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N109">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="O109">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="P109">
-        <v>318</v>
-      </c>
-      <c r="Q109">
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>285</v>
       </c>
@@ -7200,46 +6743,43 @@
         <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
         <v>9</v>
       </c>
+      <c r="F110">
+        <v>2578</v>
+      </c>
       <c r="G110">
-        <v>2578</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H110">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>109</v>
       </c>
       <c r="K110">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M110">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N110">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="O110">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="P110">
-        <v>52</v>
-      </c>
-      <c r="Q110">
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -7249,50 +6789,47 @@
       <c r="C111" t="s">
         <v>289</v>
       </c>
-      <c r="D111">
-        <v>2017</v>
+      <c r="D111" t="s">
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" t="s">
         <v>19</v>
       </c>
+      <c r="F111">
+        <v>2570</v>
+      </c>
       <c r="G111">
-        <v>2570</v>
+        <v>7.2</v>
       </c>
       <c r="H111">
-        <v>7.2</v>
+        <v>438</v>
       </c>
       <c r="I111">
-        <v>438</v>
+        <v>15</v>
       </c>
       <c r="J111">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="K111">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M111">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N111">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="O111">
-        <v>250</v>
+        <v>443</v>
       </c>
       <c r="P111">
-        <v>443</v>
-      </c>
-      <c r="Q111">
         <v>383</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>290</v>
       </c>
@@ -7303,49 +6840,46 @@
         <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>351</v>
+        <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112" t="s">
         <v>41</v>
       </c>
+      <c r="F112">
+        <v>2698</v>
+      </c>
       <c r="G112">
-        <v>2698</v>
+        <v>11.8</v>
       </c>
       <c r="H112">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="K112">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M112">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N112">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="O112">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="P112">
-        <v>550</v>
-      </c>
-      <c r="Q112">
         <v>594</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>293</v>
       </c>
@@ -7355,50 +6889,47 @@
       <c r="C113" t="s">
         <v>295</v>
       </c>
-      <c r="D113" s="1">
-        <v>44532</v>
+      <c r="D113" t="s">
+        <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113" t="s">
         <v>41</v>
       </c>
+      <c r="F113">
+        <v>2651</v>
+      </c>
       <c r="G113">
-        <v>2651</v>
+        <v>7.2</v>
       </c>
       <c r="H113">
-        <v>7.2</v>
+        <v>510</v>
       </c>
       <c r="I113">
-        <v>510</v>
+        <v>21</v>
       </c>
       <c r="J113">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="K113">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M113">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N113">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="O113">
-        <v>255</v>
+        <v>834</v>
       </c>
       <c r="P113">
-        <v>834</v>
-      </c>
-      <c r="Q113">
         <v>722</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>296</v>
       </c>
@@ -7409,83 +6940,77 @@
         <v>298</v>
       </c>
       <c r="D114" t="s">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" t="s">
         <v>62</v>
       </c>
+      <c r="F114">
+        <v>2401</v>
+      </c>
       <c r="G114">
-        <v>2401</v>
+        <v>6.8</v>
       </c>
       <c r="H114">
-        <v>6.8</v>
+        <v>490</v>
       </c>
       <c r="I114">
-        <v>490</v>
+        <v>20</v>
       </c>
       <c r="J114">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="K114">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M114">
         <v>15</v>
       </c>
       <c r="N114">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="O114">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="P114">
-        <v>37</v>
-      </c>
-      <c r="Q114">
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D115">
-        <v>2016</v>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>2689</v>
       </c>
       <c r="G115">
-        <v>2689</v>
+        <v>7</v>
       </c>
       <c r="H115">
-        <v>7</v>
+        <v>405</v>
       </c>
       <c r="I115">
-        <v>405</v>
+        <v>16</v>
       </c>
       <c r="J115">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="K115">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M115">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N115">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="O115">
-        <v>265</v>
+        <v>5</v>
       </c>
       <c r="P115">
-        <v>5</v>
-      </c>
-      <c r="Q115">
         <v>23</v>
       </c>
     </row>
